--- a/data/hotels_by_city/Houston/Houston_shard_636.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_636.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="397">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56110-d1948994-Reviews-Super_8_by_Wyndham_LaPorte-La_Porte_Texas.html</t>
   </si>
   <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Super-8-By-Wyndham-LaPorte.h3999329.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,1065 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/13/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1948994-r560632247-Super_8_by_Wyndham_LaPorte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>56110</t>
+  </si>
+  <si>
+    <t>1948994</t>
+  </si>
+  <si>
+    <t>560632247</t>
+  </si>
+  <si>
+    <t>02/15/2018</t>
+  </si>
+  <si>
+    <t>Very nice room for the price!!!</t>
+  </si>
+  <si>
+    <t>The room was very clean. I was really surprised at how nice the room was for the price of the room. The management was very courteous. The manager was attentive to all of our needs. Would definitely stay again!!!</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1948994-r559186279-Super_8_by_Wyndham_LaPorte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>559186279</t>
+  </si>
+  <si>
+    <t>02/08/2018</t>
+  </si>
+  <si>
+    <t>ok for super 8.  needs work</t>
+  </si>
+  <si>
+    <t>Room clean.  Lobby clean.  Fitness center and Business office both closed and who knows for how long.  Barebones breskfast.  no half and half nust packaged crap.  no fruit.  no yogurt.  On the high side price wise.  teeny light bulbs.  tv small.  Likely won't stay here again.  did have decaf coffee.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1948994-r557773108-Super_8_by_Wyndham_LaPorte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>557773108</t>
+  </si>
+  <si>
+    <t>02/01/2018</t>
+  </si>
+  <si>
+    <t>Unclean smell knocks you down when you walk in...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unclean smell knocks you down when you walk in  beddingscratchy was pillows flat   remote was disgusting and gooy rooms were rundown  to list a few </t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1948994-r540692154-Super_8_by_Wyndham_LaPorte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>540692154</t>
+  </si>
+  <si>
+    <t>11/13/2017</t>
+  </si>
+  <si>
+    <t>Excellent value</t>
+  </si>
+  <si>
+    <t>They have playpen available as baby crib. They don't allow you to reserve it but was thankfully available when we checked in. You'll want to layer a few sheets on it as it's quite hard. The rooms were obviously recently refurbished and felt like you were in a + star hotel. The continental breakfast is nothing to write home about, but did the job. Free wifi was very fast and we were able to stream videos.</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1948994-r539529038-Super_8_by_Wyndham_LaPorte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>539529038</t>
+  </si>
+  <si>
+    <t>11/08/2017</t>
+  </si>
+  <si>
+    <t>Lone Star Bike Rally</t>
+  </si>
+  <si>
+    <t>I gave this hotel three stars for the fact they had a room after the other Super 8 canceled our booking during the Lone Star Bike Rally. The three stars come from the location which was 40 miles away from the rally. Which isn't the hotel's fault. However, I would have given a solid 5 stars as the staff was nice and the rooms were clean (we ended up in a smoking room). Again the room was clean. Why I didn't give them a 5 star. The last night of our stay. My husband was in the shower. He slipped and fell and hit his rib and knee on the tub and toilet. There was no nonskid in the tub which it was easy to slip on. I almost took a fall a few times. When my husband fell he took the shower curtain and rod with him. This caused the rod to took half the wall out. Now, this should tell you how bad of a fall this was. Lucky my husband is young. This could have been an older person. When we reported to the staff they were very nice and told us not to worry about the damage. However, they said they have mats that upon request we could have had. Well, that is nice to know a little to late. Again, if it wasn't for that major fall and that safety concern. This is a great...I gave this hotel three stars for the fact they had a room after the other Super 8 canceled our booking during the Lone Star Bike Rally. The three stars come from the location which was 40 miles away from the rally. Which isn't the hotel's fault. However, I would have given a solid 5 stars as the staff was nice and the rooms were clean (we ended up in a smoking room). Again the room was clean. Why I didn't give them a 5 star. The last night of our stay. My husband was in the shower. He slipped and fell and hit his rib and knee on the tub and toilet. There was no nonskid in the tub which it was easy to slip on. I almost took a fall a few times. When my husband fell he took the shower curtain and rod with him. This caused the rod to took half the wall out. Now, this should tell you how bad of a fall this was. Lucky my husband is young. This could have been an older person. When we reported to the staff they were very nice and told us not to worry about the damage. However, they said they have mats that upon request we could have had. Well, that is nice to know a little to late. Again, if it wasn't for that major fall and that safety concern. This is a great hotel. I just hope this can be fixed for future customers.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>I gave this hotel three stars for the fact they had a room after the other Super 8 canceled our booking during the Lone Star Bike Rally. The three stars come from the location which was 40 miles away from the rally. Which isn't the hotel's fault. However, I would have given a solid 5 stars as the staff was nice and the rooms were clean (we ended up in a smoking room). Again the room was clean. Why I didn't give them a 5 star. The last night of our stay. My husband was in the shower. He slipped and fell and hit his rib and knee on the tub and toilet. There was no nonskid in the tub which it was easy to slip on. I almost took a fall a few times. When my husband fell he took the shower curtain and rod with him. This caused the rod to took half the wall out. Now, this should tell you how bad of a fall this was. Lucky my husband is young. This could have been an older person. When we reported to the staff they were very nice and told us not to worry about the damage. However, they said they have mats that upon request we could have had. Well, that is nice to know a little to late. Again, if it wasn't for that major fall and that safety concern. This is a great...I gave this hotel three stars for the fact they had a room after the other Super 8 canceled our booking during the Lone Star Bike Rally. The three stars come from the location which was 40 miles away from the rally. Which isn't the hotel's fault. However, I would have given a solid 5 stars as the staff was nice and the rooms were clean (we ended up in a smoking room). Again the room was clean. Why I didn't give them a 5 star. The last night of our stay. My husband was in the shower. He slipped and fell and hit his rib and knee on the tub and toilet. There was no nonskid in the tub which it was easy to slip on. I almost took a fall a few times. When my husband fell he took the shower curtain and rod with him. This caused the rod to took half the wall out. Now, this should tell you how bad of a fall this was. Lucky my husband is young. This could have been an older person. When we reported to the staff they were very nice and told us not to worry about the damage. However, they said they have mats that upon request we could have had. Well, that is nice to know a little to late. Again, if it wasn't for that major fall and that safety concern. This is a great hotel. I just hope this can be fixed for future customers.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1948994-r538887933-Super_8_by_Wyndham_LaPorte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>538887933</t>
+  </si>
+  <si>
+    <t>11/06/2017</t>
+  </si>
+  <si>
+    <t>Clean room</t>
+  </si>
+  <si>
+    <t>Clean Room and nice service, I stayed for two days and I have no issues with check in or check out. I would recommend this Hotel to my friends for they had the best price for two day stay. This was for a school reunion for Laporte high school.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1948994-r536301798-Super_8_by_Wyndham_LaPorte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>536301798</t>
+  </si>
+  <si>
+    <t>10/26/2017</t>
+  </si>
+  <si>
+    <t>Family</t>
+  </si>
+  <si>
+    <t>All hotels were full and I called Super 8 as a last resort. Due to we have never stayed at a Super 8. I would like to say it was very clean and the room was big. The staff was very helpful and would highly recommend staying here. If we are ever in this area again we will not hesitate to stay here. Thank you!</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1948994-r508467335-Super_8_by_Wyndham_LaPorte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>508467335</t>
+  </si>
+  <si>
+    <t>08/03/2017</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1948994-r508461319-Super_8_by_Wyndham_LaPorte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>508461319</t>
+  </si>
+  <si>
+    <t>Great Stay</t>
+  </si>
+  <si>
+    <t>I really enjoyed my stay. The rooms were clean the staff was nice. I would recommend this place to friends and family.MoreShow less</t>
+  </si>
+  <si>
+    <t>ManagementLP8, Manager at Super 8 by Wyndham LaPorte, responded to this reviewResponded August 16, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 16, 2017</t>
+  </si>
+  <si>
+    <t>I really enjoyed my stay. The rooms were clean the staff was nice. I would recommend this place to friends and family.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1948994-r503040453-Super_8_by_Wyndham_LaPorte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>503040453</t>
+  </si>
+  <si>
+    <t>07/17/2017</t>
+  </si>
+  <si>
+    <t>Not impressed</t>
+  </si>
+  <si>
+    <t>The room was decent size. AC did work well ,that's about all the good things I can say about this hotel.Breakfast was disappointing- 2 kinds of cereal, waffles ( waffle maker was on the fritz.), stale bread, old dry muffins and watery juice were the selections.The beds were hard and lumpy. Pillows were small and unable to get extra pillows.Room only had 3 towels and 1 washcloth.Hallway had an odd odorPool was out of service the whole weekend Could not find staff at the front desk to ask for towels , or about pool.When you did see staff in the breakfast area they were rude and if you tried to speak to them they walked away.The bathroom floor had long dark hair all over, our family does not have dark hair. Shower curtain looked like it haven't been changed in ages.Bed spread had holes and stains. I'm sure they hadn't been changed. Could not get anyone at front desk to ask for clean bed spreads.If you just need a place to crash cheaply this place would probably work if you have no desire for decent breakfast , friendly staff or a comfy bedMoreShow less</t>
+  </si>
+  <si>
+    <t>The room was decent size. AC did work well ,that's about all the good things I can say about this hotel.Breakfast was disappointing- 2 kinds of cereal, waffles ( waffle maker was on the fritz.), stale bread, old dry muffins and watery juice were the selections.The beds were hard and lumpy. Pillows were small and unable to get extra pillows.Room only had 3 towels and 1 washcloth.Hallway had an odd odorPool was out of service the whole weekend Could not find staff at the front desk to ask for towels , or about pool.When you did see staff in the breakfast area they were rude and if you tried to speak to them they walked away.The bathroom floor had long dark hair all over, our family does not have dark hair. Shower curtain looked like it haven't been changed in ages.Bed spread had holes and stains. I'm sure they hadn't been changed. Could not get anyone at front desk to ask for clean bed spreads.If you just need a place to crash cheaply this place would probably work if you have no desire for decent breakfast , friendly staff or a comfy bedMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1948994-r500538996-Super_8_by_Wyndham_LaPorte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>500538996</t>
+  </si>
+  <si>
+    <t>07/10/2017</t>
+  </si>
+  <si>
+    <t>Awesome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It was good, the front desk man was very sweet and checked us in super fast! Awesome customer service I lost my wallet there and they search high and low for it and found it and made sure everything was still there </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1948994-r497173122-Super_8_by_Wyndham_LaPorte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>497173122</t>
+  </si>
+  <si>
+    <t>06/29/2017</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1948994-r491637437-Super_8_by_Wyndham_LaPorte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>491637437</t>
+  </si>
+  <si>
+    <t>06/08/2017</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1948994-r491559800-Super_8_by_Wyndham_LaPorte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>491559800</t>
+  </si>
+  <si>
+    <t>Clean hotel</t>
+  </si>
+  <si>
+    <t>A clean hotel with friendly staff.  The only drawback was the breakfast was waffles, toast or muffins.  No eggs, yogurt or fruit.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1948994-r490618083-Super_8_by_Wyndham_LaPorte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>490618083</t>
+  </si>
+  <si>
+    <t>06/05/2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1948994-r481446287-Super_8_by_Wyndham_LaPorte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>481446287</t>
+  </si>
+  <si>
+    <t>05/03/2017</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1948994-r477679099-Super_8_by_Wyndham_LaPorte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>477679099</t>
+  </si>
+  <si>
+    <t>04/21/2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1948994-r439974254-Super_8_by_Wyndham_LaPorte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>439974254</t>
+  </si>
+  <si>
+    <t>11/25/2016</t>
+  </si>
+  <si>
+    <t>Nov Stay</t>
+  </si>
+  <si>
+    <t>The managers and people at the Super 8 LaPorte are very friendly people who provide a nice secure place to stay.  MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>ManagementLP8, Manager at Super 8 by Wyndham LaPorte, responded to this reviewResponded November 27, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 27, 2016</t>
+  </si>
+  <si>
+    <t>The managers and people at the Super 8 LaPorte are very friendly people who provide a nice secure place to stay.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1948994-r423966478-Super_8_by_Wyndham_LaPorte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>423966478</t>
+  </si>
+  <si>
+    <t>09/30/2016</t>
+  </si>
+  <si>
+    <t>Not so great.</t>
+  </si>
+  <si>
+    <t>I asked for a non smoking room and the entire third floor smells like tobacco, the room wasnt that clean, lots of carpet stains. Room was pricey, breakwast was ok, nothing great, price was moderate, consider an alternative if youre staying there for long.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>ManagementLP8, Manager at Super 8 by Wyndham LaPorte, responded to this reviewResponded October 1, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 1, 2016</t>
+  </si>
+  <si>
+    <t>I asked for a non smoking room and the entire third floor smells like tobacco, the room wasnt that clean, lots of carpet stains. Room was pricey, breakwast was ok, nothing great, price was moderate, consider an alternative if youre staying there for long.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1948994-r412808555-Super_8_by_Wyndham_LaPorte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>412808555</t>
+  </si>
+  <si>
+    <t>08/30/2016</t>
+  </si>
+  <si>
+    <t>Very Clean and Nice</t>
+  </si>
+  <si>
+    <t>Loved the rooms and it was very quiet except for the external doors slammed pretty hard and would wake us up at night. No road noise and staff extremely helpful and niceMoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>ManagementLP8, Manager at Super 8 by Wyndham LaPorte, responded to this reviewResponded August 31, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 31, 2016</t>
+  </si>
+  <si>
+    <t>Loved the rooms and it was very quiet except for the external doors slammed pretty hard and would wake us up at night. No road noise and staff extremely helpful and niceMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1948994-r404704040-Super_8_by_Wyndham_LaPorte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>404704040</t>
+  </si>
+  <si>
+    <t>08/12/2016</t>
+  </si>
+  <si>
+    <t>Not So Great</t>
+  </si>
+  <si>
+    <t>I will say the hotel is clean however there are a few things that could be improved.  First thing the outside pool furniture is in very bad shape. They have plastic furniture that needs replaced.  When I sat down on a chair it collapsed. I weigh 150 lbs. When the chair collapsed I busted open my knuckle and scraped my leg trying to catch myself.  When I looked for a new chair, I found multiple with cracked legs. The sun chairs only one was in good shape the other one was cracked down the middle. When I went for a bandaid at the front desk and told them what happened the woman didn't speak English very well.  Also the shower creeked a little when standing in it. At least it was clean, however condition of certain things left more to be desired.  I'm glad we are only staying one night.MoreShow less</t>
+  </si>
+  <si>
+    <t>I will say the hotel is clean however there are a few things that could be improved.  First thing the outside pool furniture is in very bad shape. They have plastic furniture that needs replaced.  When I sat down on a chair it collapsed. I weigh 150 lbs. When the chair collapsed I busted open my knuckle and scraped my leg trying to catch myself.  When I looked for a new chair, I found multiple with cracked legs. The sun chairs only one was in good shape the other one was cracked down the middle. When I went for a bandaid at the front desk and told them what happened the woman didn't speak English very well.  Also the shower creeked a little when standing in it. At least it was clean, however condition of certain things left more to be desired.  I'm glad we are only staying one night.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1948994-r384624393-Super_8_by_Wyndham_LaPorte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>384624393</t>
+  </si>
+  <si>
+    <t>06/21/2016</t>
+  </si>
+  <si>
+    <t>MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1948994-r382760570-Super_8_by_Wyndham_LaPorte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>382760570</t>
+  </si>
+  <si>
+    <t>06/15/2016</t>
+  </si>
+  <si>
+    <t>Sketchy</t>
+  </si>
+  <si>
+    <t>I stayed here for a month, the room is very nice for the price however you can hear everything your neighbors are doing because of how spacious they are. I would not say their customer service is the best because they are never at their front desk, I always have to ring the bell they have. The "free breakfast" is for the most part just cereal. Better than nothing I suppose. Upon checkout I clearly stated I was checking out and the next week they billed me for another stay. When I called them back they said they never took money out of my account however I filed a dispute and got my money back. I do not think this is the best place to stay. I recommend La Quinta instead. Hope this helps.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>ManagementLP8, General Manager at Super 8 by Wyndham LaPorte, responded to this reviewResponded June 18, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 18, 2016</t>
+  </si>
+  <si>
+    <t>I stayed here for a month, the room is very nice for the price however you can hear everything your neighbors are doing because of how spacious they are. I would not say their customer service is the best because they are never at their front desk, I always have to ring the bell they have. The "free breakfast" is for the most part just cereal. Better than nothing I suppose. Upon checkout I clearly stated I was checking out and the next week they billed me for another stay. When I called them back they said they never took money out of my account however I filed a dispute and got my money back. I do not think this is the best place to stay. I recommend La Quinta instead. Hope this helps.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1948994-r377654252-Super_8_by_Wyndham_LaPorte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>377654252</t>
+  </si>
+  <si>
+    <t>05/29/2016</t>
+  </si>
+  <si>
+    <t>ManagementLP8, General Manager at Super 8 by Wyndham LaPorte, responded to this reviewResponded May 30, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 30, 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1948994-r358047536-Super_8_by_Wyndham_LaPorte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>358047536</t>
+  </si>
+  <si>
+    <t>03/23/2016</t>
+  </si>
+  <si>
+    <t>Clean/Adequate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We chose this hotel because it was close to our cruise embarkation point.  The building is new...ish, clean...ish and more then adequate for an overnight stay.  The front desk staff wasn't the friendliest I've ever encountered. While a newish building it was showing signs of neglect or abuse, probably due to it's location in the refinery district. Overall though, it worked and if we left from that particular port again, I would consider the hotel again. </t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1948994-r355658304-Super_8_by_Wyndham_LaPorte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>355658304</t>
+  </si>
+  <si>
+    <t>03/15/2016</t>
+  </si>
+  <si>
+    <t>Good</t>
+  </si>
+  <si>
+    <t>Enjoyed my stay the host and staff was very attentive to my needs. Enjoyed the month at this hotel I highly recommend to others. MoreShow less</t>
+  </si>
+  <si>
+    <t>ManagementLP8, General Manager at Super 8 by Wyndham LaPorte, responded to this reviewResponded March 18, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 18, 2016</t>
+  </si>
+  <si>
+    <t>Enjoyed my stay the host and staff was very attentive to my needs. Enjoyed the month at this hotel I highly recommend to others. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1948994-r354099163-Super_8_by_Wyndham_LaPorte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>354099163</t>
+  </si>
+  <si>
+    <t>03/09/2016</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>ManagementLP8, General Manager at Super 8 by Wyndham LaPorte, responded to this reviewResponded March 10, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 10, 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1948994-r346590629-Super_8_by_Wyndham_LaPorte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>346590629</t>
+  </si>
+  <si>
+    <t>02/10/2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1948994-r344079613-Super_8_by_Wyndham_LaPorte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>344079613</t>
+  </si>
+  <si>
+    <t>01/31/2016</t>
+  </si>
+  <si>
+    <t>poor bath amenities</t>
+  </si>
+  <si>
+    <t>Super 8 has apparently gone chain-wide with the installation of short toilets.  For adults of average height they are extremely hard to rise from.  The tub bottom was so slick that trying to take a shower was hazardous.</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1948994-r343078000-Super_8_by_Wyndham_LaPorte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>343078000</t>
+  </si>
+  <si>
+    <t>01/27/2016</t>
+  </si>
+  <si>
+    <t>College Road Trip</t>
+  </si>
+  <si>
+    <t>My son had a visit at the nearby San Jacinto college and we stayed here for one night. The room though appearing clean and a strange musty odor.  The breakfast is rather limited and the staff friendly enough.  My overall impression of the place is "meh"</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1948994-r340115011-Super_8_by_Wyndham_LaPorte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>340115011</t>
+  </si>
+  <si>
+    <t>01/14/2016</t>
+  </si>
+  <si>
+    <t>Overnight stay</t>
+  </si>
+  <si>
+    <t>This hotel was very clean and the rooms are super large. They had a nice breakfast, we stayed one night since we were taking a cruise the next morning. If you are taking a cruise they have a shuttle that will pick you up.MoreShow less</t>
+  </si>
+  <si>
+    <t>ManagementLP8, General Manager at Super 8 by Wyndham LaPorte, responded to this reviewResponded January 15, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 15, 2016</t>
+  </si>
+  <si>
+    <t>This hotel was very clean and the rooms are super large. They had a nice breakfast, we stayed one night since we were taking a cruise the next morning. If you are taking a cruise they have a shuttle that will pick you up.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1948994-r339967102-Super_8_by_Wyndham_LaPorte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>339967102</t>
+  </si>
+  <si>
+    <t>nice , clean and friendly</t>
+  </si>
+  <si>
+    <t>we stayed here the night before boarding a cruise in the port of Houston.   It was a less than 10 min drive to Bayport Cruise Terminal.   The desk attendant was very helpful and printed maps to anywhere we asked for directions too .MoreShow less</t>
+  </si>
+  <si>
+    <t>we stayed here the night before boarding a cruise in the port of Houston.   It was a less than 10 min drive to Bayport Cruise Terminal.   The desk attendant was very helpful and printed maps to anywhere we asked for directions too .More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1948994-r331505436-Super_8_by_Wyndham_LaPorte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>331505436</t>
+  </si>
+  <si>
+    <t>12/08/2015</t>
+  </si>
+  <si>
+    <t>Worst Experience Ever!</t>
+  </si>
+  <si>
+    <t>I originally booked a King Size room. Turns out once I get to the hotel they give me my keys and as I'm about to walk off to my room they call me back saying there was an inconvenience with my room. This room is out of order and we can give you another room. I waited 20 minutes before they assigned another set of keys and told me it should be good now as they've given me a new room. I go upstairs to the 3rd floor and once I get to my room my keys didn't seem to work. So I go back downstairs to tell them and they tell me 'im sorry but the only room we have available now is a double queen which is a smoking'. I had spent 40 minutes at the reception just to find out that I'm not going to get my King Size room. I am very disappointed and would not recommend this to anyone ever. Not easy or convenient at all.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>ManagementLP8, General Manager at Super 8 by Wyndham LaPorte, responded to this reviewResponded December 9, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 9, 2015</t>
+  </si>
+  <si>
+    <t>I originally booked a King Size room. Turns out once I get to the hotel they give me my keys and as I'm about to walk off to my room they call me back saying there was an inconvenience with my room. This room is out of order and we can give you another room. I waited 20 minutes before they assigned another set of keys and told me it should be good now as they've given me a new room. I go upstairs to the 3rd floor and once I get to my room my keys didn't seem to work. So I go back downstairs to tell them and they tell me 'im sorry but the only room we have available now is a double queen which is a smoking'. I had spent 40 minutes at the reception just to find out that I'm not going to get my King Size room. I am very disappointed and would not recommend this to anyone ever. Not easy or convenient at all.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1948994-r302692106-Super_8_by_Wyndham_LaPorte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>302692106</t>
+  </si>
+  <si>
+    <t>08/23/2015</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>ManagementLP8, Front Office Manager at Super 8 by Wyndham LaPorte, responded to this reviewResponded August 25, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 25, 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1948994-r296973791-Super_8_by_Wyndham_LaPorte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>296973791</t>
+  </si>
+  <si>
+    <t>08/08/2015</t>
+  </si>
+  <si>
+    <t>Clean Room, Cheap Customer Service</t>
+  </si>
+  <si>
+    <t>I've stayed at this location many times, and made suggestions to corporate.  I see a continuing pattern of the property owner taking the cheap road to customer service.Fresh fruit and yogurt is never served for breakfast.  Per my suggestion, the powered coffee machine was removed and replaced with brewed coffee. However... it's only served at breakfast, and not available throughout the day.  The front desk is usually not very polite or friendly.  Conversation is kept to a minimum.For some unknown reason, they keep trying to issue me room 310 on each subsequent stay.  This room is right in front of the elevator, so you hear "ding" all night long.The house keeping staff usually does a pretty good job of keeping the rooms clean. The rooms are fresh and bright. The pillows are soft and fluffy.   The sofa is as hard as a wooden bench.There have been a couple of stays where the internet was so slow I could barely check my email.On this stay (August) when I first entered the room, I found the A/C turned off at 5 p.m.It took till midnight to cool the room down well enough to sleep comfortably. I'm tired of this location treating me like a 2nd class citizen.  I will not stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>ManagementLP8, Front Office Manager at Super 8 by Wyndham LaPorte, responded to this reviewResponded August 10, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 10, 2015</t>
+  </si>
+  <si>
+    <t>I've stayed at this location many times, and made suggestions to corporate.  I see a continuing pattern of the property owner taking the cheap road to customer service.Fresh fruit and yogurt is never served for breakfast.  Per my suggestion, the powered coffee machine was removed and replaced with brewed coffee. However... it's only served at breakfast, and not available throughout the day.  The front desk is usually not very polite or friendly.  Conversation is kept to a minimum.For some unknown reason, they keep trying to issue me room 310 on each subsequent stay.  This room is right in front of the elevator, so you hear "ding" all night long.The house keeping staff usually does a pretty good job of keeping the rooms clean. The rooms are fresh and bright. The pillows are soft and fluffy.   The sofa is as hard as a wooden bench.There have been a couple of stays where the internet was so slow I could barely check my email.On this stay (August) when I first entered the room, I found the A/C turned off at 5 p.m.It took till midnight to cool the room down well enough to sleep comfortably. I'm tired of this location treating me like a 2nd class citizen.  I will not stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1948994-r292195907-Super_8_by_Wyndham_LaPorte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>292195907</t>
+  </si>
+  <si>
+    <t>07/24/2015</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1948994-r286249009-Super_8_by_Wyndham_LaPorte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>286249009</t>
+  </si>
+  <si>
+    <t>07/06/2015</t>
+  </si>
+  <si>
+    <t>Disappointing breakfast but comfortable room</t>
+  </si>
+  <si>
+    <t>The continental breakfast was something I was grateful to have, I just wish there had of been more options than a waffle and cereal. There were packaged pastries as well but that's more vending machine stuff. The air condition in the room was fabulous as was the speedy way the water got warm. Unfortunately, the wifi was constantly cutting in and out. I suspect they just didn't have enough bandwidth because when I was up super late one night, it worked pretty well for a while but any other time was very touch and go. The bed was more stiff than I'm used to and the pillows were super squishy. The staff was helpful though which made it a nice experience.MoreShow less</t>
+  </si>
+  <si>
+    <t>ManagementLP8, Front Office Manager at Super 8 by Wyndham LaPorte, responded to this reviewResponded July 16, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 16, 2015</t>
+  </si>
+  <si>
+    <t>The continental breakfast was something I was grateful to have, I just wish there had of been more options than a waffle and cereal. There were packaged pastries as well but that's more vending machine stuff. The air condition in the room was fabulous as was the speedy way the water got warm. Unfortunately, the wifi was constantly cutting in and out. I suspect they just didn't have enough bandwidth because when I was up super late one night, it worked pretty well for a while but any other time was very touch and go. The bed was more stiff than I'm used to and the pillows were super squishy. The staff was helpful though which made it a nice experience.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1948994-r285260757-Super_8_by_Wyndham_LaPorte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>285260757</t>
+  </si>
+  <si>
+    <t>07/03/2015</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1948994-r277066985-Super_8_by_Wyndham_LaPorte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>277066985</t>
+  </si>
+  <si>
+    <t>06/01/2015</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>ManagementLP8, Manager at Super 8 by Wyndham LaPorte, responded to this reviewResponded June 3, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 3, 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1948994-r269825206-Super_8_by_Wyndham_LaPorte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>269825206</t>
+  </si>
+  <si>
+    <t>05/03/2015</t>
+  </si>
+  <si>
+    <t>Very Nice</t>
+  </si>
+  <si>
+    <t>The reception is nice easy entrance. The cleaning is great from entrance to elevator, hallways, and the room. The personnel was very polite and attentive. I would stay here in this location again, and I recommend this. MoreShow less</t>
+  </si>
+  <si>
+    <t>ManagementLP8, Manager at Super 8 by Wyndham LaPorte, responded to this reviewResponded May 8, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 8, 2015</t>
+  </si>
+  <si>
+    <t>The reception is nice easy entrance. The cleaning is great from entrance to elevator, hallways, and the room. The personnel was very polite and attentive. I would stay here in this location again, and I recommend this. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1948994-r265299342-Super_8_by_Wyndham_LaPorte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>265299342</t>
+  </si>
+  <si>
+    <t>04/12/2015</t>
+  </si>
+  <si>
+    <t>Nice Stay!</t>
+  </si>
+  <si>
+    <t>The stay was very nice, the rooms were clean and neat. The motel looks to be newer and well decorated. If in the area in the future, I would stay there again.  MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>The stay was very nice, the rooms were clean and neat. The motel looks to be newer and well decorated. If in the area in the future, I would stay there again.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1948994-r263961525-Super_8_by_Wyndham_LaPorte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>263961525</t>
+  </si>
+  <si>
+    <t>04/06/2015</t>
+  </si>
+  <si>
+    <t>Traveling trucker</t>
+  </si>
+  <si>
+    <t>I liked this super 8. Was nice and well priced. Friendly staff. Close to the grocery store and other things. Easy on and off access.            The one bedroom room was clean and well laid out. Had a work table, microwave, fridge, and a comfy chair to relax. Bed was big and comfy too.  Plenty of room to move around in bathroom and we'll stocked with towels and even a hairdryer too.               Only bad thing was they had a small parking lot - yes I'm a truck driver and have my semi truck with me. But glad they let me stay. Overall would stay again</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1948994-r259546116-Super_8_by_Wyndham_LaPorte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>259546116</t>
+  </si>
+  <si>
+    <t>03/15/2015</t>
+  </si>
+  <si>
+    <t>Nice room, not so nice breakfast</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The room was newer and nice The beds were comfy and over all everthing seemed clean. The breakfast could use some help. Most places have more assortment of bread, pastries. There was no flavored coffee creamer only sugar, milk, and half and half. There was waffles but something seemed odd with the batter. I would stay here again but not count on breakfast. </t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1948994-r257381595-Super_8_by_Wyndham_LaPorte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>257381595</t>
+  </si>
+  <si>
+    <t>03/02/2015</t>
+  </si>
+  <si>
+    <t>Great room</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We stayed before our cruise out of Galveston.  The motel was very clean and our room was very comfortable.  We booked 9 months out and got a great rate. </t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1948994-r252311835-Super_8_by_Wyndham_LaPorte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>252311835</t>
+  </si>
+  <si>
+    <t>02/02/2015</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1948994-r248613679-Super_8_by_Wyndham_LaPorte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>248613679</t>
+  </si>
+  <si>
+    <t>01/10/2015</t>
+  </si>
+  <si>
+    <t>Recommended for Pre-cruise stay</t>
+  </si>
+  <si>
+    <t>Pros: Hotel was one of the cleanest I've seen in this price range ($81 total)!  Front desk clerk was friendly and helpful. The room was very clean and well stocked with towels.  Bathroom was immaculate and well lit.  Plenty of hot water and good water pressure!  We stayed in Room 107,  There was some noise from the elevators on the other side of the wall but not enough to bother us. Lots of outlets, a fridge, microwave, and large closet.  Breakfast: waffle baker (excellent), cereal, juice, milk, toast, coffee served until 9 am.  Parking was well lit and safe.  Con's: king bed was a little hard and only 3 pillows for 2 people.MoreShow less</t>
+  </si>
+  <si>
+    <t>Pros: Hotel was one of the cleanest I've seen in this price range ($81 total)!  Front desk clerk was friendly and helpful. The room was very clean and well stocked with towels.  Bathroom was immaculate and well lit.  Plenty of hot water and good water pressure!  We stayed in Room 107,  There was some noise from the elevators on the other side of the wall but not enough to bother us. Lots of outlets, a fridge, microwave, and large closet.  Breakfast: waffle baker (excellent), cereal, juice, milk, toast, coffee served until 9 am.  Parking was well lit and safe.  Con's: king bed was a little hard and only 3 pillows for 2 people.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1948994-r241666320-Super_8_by_Wyndham_LaPorte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>241666320</t>
+  </si>
+  <si>
+    <t>11/26/2014</t>
+  </si>
+  <si>
+    <t>we have stayed 5 times here for are cruise  Its clean THE...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">we have stayed 5 times here for are cruise  Its clean THE staff are very helpful and location is 5min, to cruise terminal. There are plenty of stores near by as well as eating places  its right on 146 Highway   refrigerator are great and the microwaves to  away from noise on Highway try it we keep coming back its all new building rooms are big  enjoy  </t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1948994-r238179933-Super_8_by_Wyndham_LaPorte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>238179933</t>
+  </si>
+  <si>
+    <t>11/04/2014</t>
+  </si>
+  <si>
+    <t>would stay here again</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New, clean and nicely run. Staff was good to work with.  Our room was clean and the beds were great.  The only thing that I was not happy about was no fruit or yogort at breakfast.  Oatmeal would of help also. </t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1948994-r221885786-Super_8_by_Wyndham_LaPorte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>221885786</t>
+  </si>
+  <si>
+    <t>08/14/2014</t>
+  </si>
+  <si>
+    <t>comfortable stay</t>
+  </si>
+  <si>
+    <t>I recently stayed here for work, and had a comfortable stay. grounds are well maintained, parking is tight and tends to fill up quick. no problems at check in. was surprised to have to pay a 100 dollar deposit cause i was paying cash....as long as i got my money back. room was nice,clean and spacious with a nice flat screen. didn't eat breakfast or checkout the pool. i'd stay here again.</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1948994-r217089623-Super_8_by_Wyndham_LaPorte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>217089623</t>
+  </si>
+  <si>
+    <t>07/23/2014</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1948994-r215181034-Super_8_by_Wyndham_LaPorte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>215181034</t>
+  </si>
+  <si>
+    <t>07/13/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1948994-r207729558-Super_8_by_Wyndham_LaPorte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>207729558</t>
+  </si>
+  <si>
+    <t>05/28/2014</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1948994-r204214540-Super_8_by_Wyndham_LaPorte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>204214540</t>
+  </si>
+  <si>
+    <t>05/05/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1948994-r203768752-Super_8_by_Wyndham_LaPorte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>203768752</t>
+  </si>
+  <si>
+    <t>05/02/2014</t>
+  </si>
+  <si>
+    <t>I had to cancel my stay. I spoke to a gentleman with a very...</t>
+  </si>
+  <si>
+    <t>I had to cancel my stay. I spoke to a gentleman with a very difficult accent. And I did not get the promised receipt for the one night because I had to cancel after 6 PM. My daughter was in Indiana University Hospital and passed away on Tuesday from cancer. She was only 50. I just wanted to go back home to Woodridge Illinois.  I would suggest that anyone answering the telephone have some basic English. It was horrible trying to say anything to this person..especially after losing my daughter.</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1948994-r198225627-Super_8_by_Wyndham_LaPorte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>198225627</t>
+  </si>
+  <si>
+    <t>03/21/2014</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1948994-r197496031-Super_8_by_Wyndham_LaPorte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>197496031</t>
+  </si>
+  <si>
+    <t>03/15/2014</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1948994-r197226361-Super_8_by_Wyndham_LaPorte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>197226361</t>
+  </si>
+  <si>
+    <t>03/12/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1948994-r185722953-Super_8_by_Wyndham_LaPorte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>185722953</t>
+  </si>
+  <si>
+    <t>11/24/2013</t>
+  </si>
+  <si>
+    <t>elevator noise, breakfast bar deficiency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Our room backed up the elevators so had a lot of noise. The so-called breakfast wwas nothing but cold cereals, bad coffee, sticky waffle iron, yogurt. No fruit, no  ssweet rolls, no juice. </t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1948994-r183576621-Super_8_by_Wyndham_LaPorte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>183576621</t>
+  </si>
+  <si>
+    <t>11/04/2013</t>
+  </si>
+  <si>
+    <t>Better than I thought</t>
+  </si>
+  <si>
+    <t>Stayed one night, easy access to interstate, nice and clean, great room, fridge in room, waffle, muffin and cereal for breakfast, no complaints, about hotel,room or service, and a great price,close to kemah boardwalk without the higher prices</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1948994-r180952294-Super_8_by_Wyndham_LaPorte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>180952294</t>
+  </si>
+  <si>
+    <t>10/14/2013</t>
+  </si>
+  <si>
+    <t>Worst Place Ever</t>
+  </si>
+  <si>
+    <t>This was the worst hotel ever. They are too cheap to turn ac on in hallways. They ran out of clean towels. The room had a moldy musty smell. The people running hotel were very rude. Will never be back. The cleaning people stole a jewelry bag out of room across hall from me. The breakfast was either cereal or a make your own waffle and they run out of waffle mix.</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1948994-r161455375-Super_8_by_Wyndham_LaPorte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>161455375</t>
+  </si>
+  <si>
+    <t>05/21/2013</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1948994-r144109860-Super_8_by_Wyndham_LaPorte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>144109860</t>
+  </si>
+  <si>
+    <t>10/30/2012</t>
+  </si>
+  <si>
+    <t>October 2012</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1600,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,80 +1632,4072 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>60880</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="n">
+        <v>5</v>
+      </c>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>60880</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
+        <v>59</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="n">
+        <v>4</v>
+      </c>
+      <c r="R3" t="s"/>
+      <c r="S3" t="n">
+        <v>4</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>4</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>60880</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>65</v>
+      </c>
+      <c r="O4" t="s">
+        <v>66</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1</v>
+      </c>
+      <c r="R4" t="n">
+        <v>3</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>2</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>60880</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L5" t="s">
+        <v>71</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>72</v>
+      </c>
+      <c r="O5" t="s">
+        <v>53</v>
+      </c>
+      <c r="P5" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>5</v>
+      </c>
+      <c r="R5" t="n">
+        <v>3</v>
+      </c>
+      <c r="S5" t="n">
+        <v>4</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>4</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>60880</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>74</v>
+      </c>
+      <c r="J6" t="s">
+        <v>75</v>
+      </c>
+      <c r="K6" t="s">
+        <v>76</v>
+      </c>
+      <c r="L6" t="s">
+        <v>77</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N6" t="s">
+        <v>72</v>
+      </c>
+      <c r="O6" t="s">
+        <v>78</v>
+      </c>
+      <c r="P6" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>3</v>
+      </c>
+      <c r="R6" t="n">
+        <v>2</v>
+      </c>
+      <c r="S6" t="n">
+        <v>4</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>4</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>60880</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>81</v>
+      </c>
+      <c r="J7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L7" t="s">
+        <v>84</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>72</v>
+      </c>
+      <c r="O7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>60880</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>86</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>87</v>
+      </c>
+      <c r="J8" t="s">
+        <v>88</v>
+      </c>
+      <c r="K8" t="s">
+        <v>89</v>
+      </c>
+      <c r="L8" t="s">
+        <v>90</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>91</v>
+      </c>
+      <c r="O8" t="s">
+        <v>53</v>
+      </c>
+      <c r="P8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>5</v>
+      </c>
+      <c r="R8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S8" t="n">
+        <v>5</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>60880</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>92</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>93</v>
+      </c>
+      <c r="J9" t="s">
+        <v>94</v>
+      </c>
+      <c r="K9" t="s"/>
+      <c r="L9" t="s"/>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
+        <v>95</v>
+      </c>
+      <c r="O9" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1</v>
+      </c>
+      <c r="R9" t="n">
+        <v>4</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>1</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>60880</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>96</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>97</v>
+      </c>
+      <c r="J10" t="s">
+        <v>94</v>
+      </c>
+      <c r="K10" t="s">
+        <v>98</v>
+      </c>
+      <c r="L10" t="s">
+        <v>99</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>95</v>
+      </c>
+      <c r="O10" t="s">
+        <v>53</v>
+      </c>
+      <c r="P10" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>4</v>
+      </c>
+      <c r="R10" t="n">
+        <v>3</v>
+      </c>
+      <c r="S10" t="n">
+        <v>4</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>4</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>100</v>
+      </c>
+      <c r="X10" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>60880</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>103</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>104</v>
+      </c>
+      <c r="J11" t="s">
+        <v>105</v>
+      </c>
+      <c r="K11" t="s">
+        <v>106</v>
+      </c>
+      <c r="L11" t="s">
+        <v>107</v>
+      </c>
+      <c r="M11" t="n">
+        <v>3</v>
+      </c>
+      <c r="N11" t="s">
+        <v>95</v>
+      </c>
+      <c r="O11" t="s">
+        <v>53</v>
+      </c>
+      <c r="P11" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2</v>
+      </c>
+      <c r="R11" t="n">
+        <v>4</v>
+      </c>
+      <c r="S11" t="n">
+        <v>3</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>1</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>60880</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>109</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>110</v>
+      </c>
+      <c r="J12" t="s">
+        <v>111</v>
+      </c>
+      <c r="K12" t="s">
+        <v>112</v>
+      </c>
+      <c r="L12" t="s">
+        <v>113</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>95</v>
+      </c>
+      <c r="O12" t="s">
+        <v>53</v>
+      </c>
+      <c r="P12" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>5</v>
+      </c>
+      <c r="R12" t="n">
+        <v>3</v>
+      </c>
+      <c r="S12" t="n">
+        <v>5</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>60880</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>114</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>115</v>
+      </c>
+      <c r="J13" t="s">
+        <v>116</v>
+      </c>
+      <c r="K13" t="s"/>
+      <c r="L13" t="s"/>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
+        <v>117</v>
+      </c>
+      <c r="O13" t="s">
+        <v>78</v>
+      </c>
+      <c r="P13" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>3</v>
+      </c>
+      <c r="R13" t="n">
+        <v>4</v>
+      </c>
+      <c r="S13" t="n">
+        <v>4</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>3</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>60880</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>118</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>119</v>
+      </c>
+      <c r="J14" t="s">
+        <v>120</v>
+      </c>
+      <c r="K14" t="s"/>
+      <c r="L14" t="s"/>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>121</v>
+      </c>
+      <c r="O14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P14" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>5</v>
+      </c>
+      <c r="R14" t="n">
+        <v>5</v>
+      </c>
+      <c r="S14" t="n">
+        <v>5</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>60880</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>122</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>123</v>
+      </c>
+      <c r="J15" t="s">
+        <v>120</v>
+      </c>
+      <c r="K15" t="s">
+        <v>124</v>
+      </c>
+      <c r="L15" t="s">
+        <v>125</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
+        <v>117</v>
+      </c>
+      <c r="O15" t="s">
+        <v>53</v>
+      </c>
+      <c r="P15" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="n">
+        <v>3</v>
+      </c>
+      <c r="S15" t="n">
+        <v>5</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>4</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>60880</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>126</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>127</v>
+      </c>
+      <c r="J16" t="s">
+        <v>128</v>
+      </c>
+      <c r="K16" t="s"/>
+      <c r="L16" t="s"/>
+      <c r="M16" t="n">
+        <v>2</v>
+      </c>
+      <c r="N16" t="s">
+        <v>121</v>
+      </c>
+      <c r="O16" t="s">
+        <v>53</v>
+      </c>
+      <c r="P16" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2</v>
+      </c>
+      <c r="R16" t="n">
+        <v>3</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>4</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>60880</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>129</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>130</v>
+      </c>
+      <c r="J17" t="s">
+        <v>131</v>
+      </c>
+      <c r="K17" t="s"/>
+      <c r="L17" t="s"/>
+      <c r="M17" t="n">
+        <v>2</v>
+      </c>
+      <c r="N17" t="s">
+        <v>132</v>
+      </c>
+      <c r="O17" t="s">
+        <v>78</v>
+      </c>
+      <c r="P17" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>2</v>
+      </c>
+      <c r="R17" t="n">
+        <v>2</v>
+      </c>
+      <c r="S17" t="n">
+        <v>3</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>3</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>60880</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>133</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>134</v>
+      </c>
+      <c r="J18" t="s">
+        <v>135</v>
+      </c>
+      <c r="K18" t="s"/>
+      <c r="L18" t="s"/>
+      <c r="M18" t="n">
+        <v>2</v>
+      </c>
+      <c r="N18" t="s">
+        <v>132</v>
+      </c>
+      <c r="O18" t="s">
+        <v>66</v>
+      </c>
+      <c r="P18" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>3</v>
+      </c>
+      <c r="R18" t="n">
+        <v>4</v>
+      </c>
+      <c r="S18" t="n">
+        <v>2</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>3</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>60880</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>136</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>137</v>
+      </c>
+      <c r="J19" t="s">
+        <v>138</v>
+      </c>
+      <c r="K19" t="s">
+        <v>139</v>
+      </c>
+      <c r="L19" t="s">
+        <v>140</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>141</v>
+      </c>
+      <c r="O19" t="s">
+        <v>66</v>
+      </c>
+      <c r="P19" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>5</v>
+      </c>
+      <c r="R19" t="n">
+        <v>5</v>
+      </c>
+      <c r="S19" t="n">
+        <v>5</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>142</v>
+      </c>
+      <c r="X19" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>60880</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>145</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>146</v>
+      </c>
+      <c r="J20" t="s">
+        <v>147</v>
+      </c>
+      <c r="K20" t="s">
+        <v>148</v>
+      </c>
+      <c r="L20" t="s">
+        <v>149</v>
+      </c>
+      <c r="M20" t="n">
+        <v>2</v>
+      </c>
+      <c r="N20" t="s">
+        <v>150</v>
+      </c>
+      <c r="O20" t="s">
+        <v>66</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>151</v>
+      </c>
+      <c r="X20" t="s">
+        <v>152</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>60880</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>154</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>155</v>
+      </c>
+      <c r="J21" t="s">
+        <v>156</v>
+      </c>
+      <c r="K21" t="s">
+        <v>157</v>
+      </c>
+      <c r="L21" t="s">
+        <v>158</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4</v>
+      </c>
+      <c r="N21" t="s">
+        <v>159</v>
+      </c>
+      <c r="O21" t="s">
+        <v>53</v>
+      </c>
+      <c r="P21" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>5</v>
+      </c>
+      <c r="R21" t="n">
+        <v>4</v>
+      </c>
+      <c r="S21" t="n">
+        <v>5</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>160</v>
+      </c>
+      <c r="X21" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>60880</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>163</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>164</v>
+      </c>
+      <c r="J22" t="s">
+        <v>165</v>
+      </c>
+      <c r="K22" t="s">
+        <v>166</v>
+      </c>
+      <c r="L22" t="s">
+        <v>167</v>
+      </c>
+      <c r="M22" t="n">
+        <v>2</v>
+      </c>
+      <c r="N22" t="s">
+        <v>159</v>
+      </c>
+      <c r="O22" t="s">
+        <v>53</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>60880</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>169</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>170</v>
+      </c>
+      <c r="J23" t="s">
+        <v>171</v>
+      </c>
+      <c r="K23" t="s"/>
+      <c r="L23" t="s">
+        <v>172</v>
+      </c>
+      <c r="M23" t="n">
+        <v>2</v>
+      </c>
+      <c r="N23" t="s">
+        <v>173</v>
+      </c>
+      <c r="O23" t="s">
+        <v>59</v>
+      </c>
+      <c r="P23" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>2</v>
+      </c>
+      <c r="R23" t="n">
+        <v>3</v>
+      </c>
+      <c r="S23" t="n">
+        <v>3</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>2</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>60880</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>175</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>176</v>
+      </c>
+      <c r="J24" t="s">
+        <v>177</v>
+      </c>
+      <c r="K24" t="s">
+        <v>178</v>
+      </c>
+      <c r="L24" t="s">
+        <v>179</v>
+      </c>
+      <c r="M24" t="n">
+        <v>2</v>
+      </c>
+      <c r="N24" t="s">
+        <v>180</v>
+      </c>
+      <c r="O24" t="s">
+        <v>66</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="n">
+        <v>4</v>
+      </c>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>1</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>181</v>
+      </c>
+      <c r="X24" t="s">
+        <v>182</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>60880</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>184</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>185</v>
+      </c>
+      <c r="J25" t="s">
+        <v>186</v>
+      </c>
+      <c r="K25" t="s"/>
+      <c r="L25" t="s">
+        <v>172</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>180</v>
+      </c>
+      <c r="O25" t="s">
+        <v>66</v>
+      </c>
+      <c r="P25" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>5</v>
+      </c>
+      <c r="R25" t="n">
+        <v>5</v>
+      </c>
+      <c r="S25" t="n">
+        <v>5</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>187</v>
+      </c>
+      <c r="X25" t="s">
+        <v>188</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>60880</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>189</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>190</v>
+      </c>
+      <c r="J26" t="s">
+        <v>191</v>
+      </c>
+      <c r="K26" t="s">
+        <v>192</v>
+      </c>
+      <c r="L26" t="s">
+        <v>193</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4</v>
+      </c>
+      <c r="N26" t="s">
+        <v>194</v>
+      </c>
+      <c r="O26" t="s">
+        <v>53</v>
+      </c>
+      <c r="P26" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>3</v>
+      </c>
+      <c r="R26" t="n">
+        <v>3</v>
+      </c>
+      <c r="S26" t="n">
+        <v>3</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>3</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>60880</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>195</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>196</v>
+      </c>
+      <c r="J27" t="s">
+        <v>197</v>
+      </c>
+      <c r="K27" t="s">
+        <v>198</v>
+      </c>
+      <c r="L27" t="s">
+        <v>199</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>194</v>
+      </c>
+      <c r="O27" t="s">
+        <v>59</v>
+      </c>
+      <c r="P27" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>5</v>
+      </c>
+      <c r="R27" t="n">
+        <v>5</v>
+      </c>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>200</v>
+      </c>
+      <c r="X27" t="s">
+        <v>201</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>60880</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>203</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>204</v>
+      </c>
+      <c r="J28" t="s">
+        <v>205</v>
+      </c>
+      <c r="K28" t="s"/>
+      <c r="L28" t="s">
+        <v>172</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>206</v>
+      </c>
+      <c r="O28" t="s">
+        <v>66</v>
+      </c>
+      <c r="P28" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>5</v>
+      </c>
+      <c r="R28" t="n">
+        <v>5</v>
+      </c>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>207</v>
+      </c>
+      <c r="X28" t="s">
+        <v>208</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>60880</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>209</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>210</v>
+      </c>
+      <c r="J29" t="s">
+        <v>211</v>
+      </c>
+      <c r="K29" t="s"/>
+      <c r="L29" t="s"/>
+      <c r="M29" t="n">
+        <v>4</v>
+      </c>
+      <c r="N29" t="s">
+        <v>194</v>
+      </c>
+      <c r="O29" t="s">
+        <v>53</v>
+      </c>
+      <c r="P29" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>5</v>
+      </c>
+      <c r="R29" t="n">
+        <v>5</v>
+      </c>
+      <c r="S29" t="n">
+        <v>5</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>60880</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>212</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>213</v>
+      </c>
+      <c r="J30" t="s">
+        <v>214</v>
+      </c>
+      <c r="K30" t="s">
+        <v>215</v>
+      </c>
+      <c r="L30" t="s">
+        <v>216</v>
+      </c>
+      <c r="M30" t="n">
+        <v>2</v>
+      </c>
+      <c r="N30" t="s">
+        <v>217</v>
+      </c>
+      <c r="O30" t="s">
+        <v>78</v>
+      </c>
+      <c r="P30" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>2</v>
+      </c>
+      <c r="R30" t="n">
+        <v>5</v>
+      </c>
+      <c r="S30" t="n">
+        <v>5</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>3</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>60880</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>218</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>219</v>
+      </c>
+      <c r="J31" t="s">
+        <v>220</v>
+      </c>
+      <c r="K31" t="s">
+        <v>221</v>
+      </c>
+      <c r="L31" t="s">
+        <v>222</v>
+      </c>
+      <c r="M31" t="n">
+        <v>3</v>
+      </c>
+      <c r="N31" t="s">
+        <v>217</v>
+      </c>
+      <c r="O31" t="s">
+        <v>53</v>
+      </c>
+      <c r="P31" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="n">
+        <v>3</v>
+      </c>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>3</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>60880</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>223</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>224</v>
+      </c>
+      <c r="J32" t="s">
+        <v>225</v>
+      </c>
+      <c r="K32" t="s">
+        <v>226</v>
+      </c>
+      <c r="L32" t="s">
+        <v>227</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>217</v>
+      </c>
+      <c r="O32" t="s">
+        <v>78</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="n">
+        <v>5</v>
+      </c>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>228</v>
+      </c>
+      <c r="X32" t="s">
+        <v>229</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>60880</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>231</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>232</v>
+      </c>
+      <c r="J33" t="s">
+        <v>225</v>
+      </c>
+      <c r="K33" t="s">
+        <v>233</v>
+      </c>
+      <c r="L33" t="s">
+        <v>234</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>217</v>
+      </c>
+      <c r="O33" t="s">
+        <v>53</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="n">
+        <v>5</v>
+      </c>
+      <c r="R33" t="n">
+        <v>5</v>
+      </c>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>228</v>
+      </c>
+      <c r="X33" t="s">
+        <v>229</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>60880</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>236</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>237</v>
+      </c>
+      <c r="J34" t="s">
+        <v>238</v>
+      </c>
+      <c r="K34" t="s">
+        <v>239</v>
+      </c>
+      <c r="L34" t="s">
+        <v>240</v>
+      </c>
+      <c r="M34" t="n">
+        <v>2</v>
+      </c>
+      <c r="N34" t="s">
+        <v>241</v>
+      </c>
+      <c r="O34" t="s">
+        <v>78</v>
+      </c>
+      <c r="P34" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>1</v>
+      </c>
+      <c r="R34" t="n">
+        <v>2</v>
+      </c>
+      <c r="S34" t="n">
+        <v>3</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>1</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>242</v>
+      </c>
+      <c r="X34" t="s">
+        <v>243</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>60880</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>245</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>246</v>
+      </c>
+      <c r="J35" t="s">
+        <v>247</v>
+      </c>
+      <c r="K35" t="s"/>
+      <c r="L35" t="s">
+        <v>172</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>248</v>
+      </c>
+      <c r="O35" t="s">
+        <v>66</v>
+      </c>
+      <c r="P35" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>5</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5</v>
+      </c>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>249</v>
+      </c>
+      <c r="X35" t="s">
+        <v>250</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>60880</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>251</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>252</v>
+      </c>
+      <c r="J36" t="s">
+        <v>253</v>
+      </c>
+      <c r="K36" t="s">
+        <v>254</v>
+      </c>
+      <c r="L36" t="s">
+        <v>255</v>
+      </c>
+      <c r="M36" t="n">
+        <v>2</v>
+      </c>
+      <c r="N36" t="s">
+        <v>248</v>
+      </c>
+      <c r="O36" t="s">
+        <v>66</v>
+      </c>
+      <c r="P36" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>4</v>
+      </c>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>2</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>256</v>
+      </c>
+      <c r="X36" t="s">
+        <v>257</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>60880</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>259</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>260</v>
+      </c>
+      <c r="J37" t="s">
+        <v>261</v>
+      </c>
+      <c r="K37" t="s"/>
+      <c r="L37" t="s">
+        <v>172</v>
+      </c>
+      <c r="M37" t="n">
+        <v>2</v>
+      </c>
+      <c r="N37" t="s">
+        <v>262</v>
+      </c>
+      <c r="O37" t="s">
+        <v>53</v>
+      </c>
+      <c r="P37" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>2</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5</v>
+      </c>
+      <c r="S37" t="n">
+        <v>2</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>2</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>256</v>
+      </c>
+      <c r="X37" t="s">
+        <v>257</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>60880</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>263</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>264</v>
+      </c>
+      <c r="J38" t="s">
+        <v>265</v>
+      </c>
+      <c r="K38" t="s">
+        <v>266</v>
+      </c>
+      <c r="L38" t="s">
+        <v>267</v>
+      </c>
+      <c r="M38" t="n">
+        <v>3</v>
+      </c>
+      <c r="N38" t="s">
+        <v>262</v>
+      </c>
+      <c r="O38" t="s">
+        <v>78</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="n">
+        <v>4</v>
+      </c>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>268</v>
+      </c>
+      <c r="X38" t="s">
+        <v>269</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>60880</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>271</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>272</v>
+      </c>
+      <c r="J39" t="s">
+        <v>273</v>
+      </c>
+      <c r="K39" t="s"/>
+      <c r="L39" t="s">
+        <v>172</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>274</v>
+      </c>
+      <c r="O39" t="s">
+        <v>53</v>
+      </c>
+      <c r="P39" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>5</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5</v>
+      </c>
+      <c r="S39" t="n">
+        <v>4</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>268</v>
+      </c>
+      <c r="X39" t="s">
+        <v>269</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>60880</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>275</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>276</v>
+      </c>
+      <c r="J40" t="s">
+        <v>277</v>
+      </c>
+      <c r="K40" t="s"/>
+      <c r="L40" t="s">
+        <v>172</v>
+      </c>
+      <c r="M40" t="n">
+        <v>2</v>
+      </c>
+      <c r="N40" t="s">
+        <v>278</v>
+      </c>
+      <c r="O40" t="s">
+        <v>53</v>
+      </c>
+      <c r="P40" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>3</v>
+      </c>
+      <c r="R40" t="n">
+        <v>3</v>
+      </c>
+      <c r="S40" t="n">
+        <v>2</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>2</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>279</v>
+      </c>
+      <c r="X40" t="s">
+        <v>280</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>60880</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
       </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>281</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>282</v>
+      </c>
+      <c r="J41" t="s">
+        <v>283</v>
+      </c>
+      <c r="K41" t="s">
+        <v>284</v>
+      </c>
+      <c r="L41" t="s">
+        <v>285</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>278</v>
+      </c>
+      <c r="O41" t="s">
+        <v>53</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="s"/>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>286</v>
+      </c>
+      <c r="X41" t="s">
+        <v>287</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>60880</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>289</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>290</v>
+      </c>
+      <c r="J42" t="s">
+        <v>291</v>
+      </c>
+      <c r="K42" t="s">
+        <v>292</v>
+      </c>
+      <c r="L42" t="s">
+        <v>293</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>294</v>
+      </c>
+      <c r="O42" t="s">
+        <v>53</v>
+      </c>
+      <c r="P42" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>4</v>
+      </c>
+      <c r="R42" t="n">
+        <v>3</v>
+      </c>
+      <c r="S42" t="n">
+        <v>4</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>3</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>286</v>
+      </c>
+      <c r="X42" t="s">
+        <v>287</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>60880</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>296</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>297</v>
+      </c>
+      <c r="J43" t="s">
+        <v>298</v>
+      </c>
+      <c r="K43" t="s">
+        <v>299</v>
+      </c>
+      <c r="L43" t="s">
+        <v>300</v>
+      </c>
+      <c r="M43" t="n">
+        <v>3</v>
+      </c>
+      <c r="N43" t="s">
+        <v>294</v>
+      </c>
+      <c r="O43" t="s">
+        <v>59</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="s"/>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>60880</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>301</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>302</v>
+      </c>
+      <c r="J44" t="s">
+        <v>303</v>
+      </c>
+      <c r="K44" t="s">
+        <v>304</v>
+      </c>
+      <c r="L44" t="s">
+        <v>305</v>
+      </c>
+      <c r="M44" t="n">
+        <v>4</v>
+      </c>
+      <c r="N44" t="s">
+        <v>306</v>
+      </c>
+      <c r="O44" t="s">
+        <v>53</v>
+      </c>
+      <c r="P44" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>5</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5</v>
+      </c>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>3</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>60880</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>307</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>308</v>
+      </c>
+      <c r="J45" t="s">
+        <v>309</v>
+      </c>
+      <c r="K45" t="s">
+        <v>310</v>
+      </c>
+      <c r="L45" t="s">
+        <v>311</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>312</v>
+      </c>
+      <c r="O45" t="s">
+        <v>85</v>
+      </c>
+      <c r="P45" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>4</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5</v>
+      </c>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>4</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>60880</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>313</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>314</v>
+      </c>
+      <c r="J46" t="s">
+        <v>315</v>
+      </c>
+      <c r="K46" t="s"/>
+      <c r="L46" t="s"/>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>316</v>
+      </c>
+      <c r="O46" t="s">
+        <v>78</v>
+      </c>
+      <c r="P46" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>5</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5</v>
+      </c>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>60880</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>317</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>318</v>
+      </c>
+      <c r="J47" t="s">
+        <v>319</v>
+      </c>
+      <c r="K47" t="s">
+        <v>320</v>
+      </c>
+      <c r="L47" t="s">
+        <v>321</v>
+      </c>
+      <c r="M47" t="n">
+        <v>4</v>
+      </c>
+      <c r="N47" t="s">
+        <v>316</v>
+      </c>
+      <c r="O47" t="s">
+        <v>78</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="s"/>
+      <c r="T47" t="s"/>
+      <c r="U47" t="s"/>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>60880</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>323</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>324</v>
+      </c>
+      <c r="J48" t="s">
+        <v>325</v>
+      </c>
+      <c r="K48" t="s">
+        <v>326</v>
+      </c>
+      <c r="L48" t="s">
+        <v>327</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>328</v>
+      </c>
+      <c r="O48" t="s">
+        <v>78</v>
+      </c>
+      <c r="P48" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>4</v>
+      </c>
+      <c r="R48" t="n">
+        <v>4</v>
+      </c>
+      <c r="S48" t="n">
+        <v>4</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>60880</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>329</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>330</v>
+      </c>
+      <c r="J49" t="s">
+        <v>331</v>
+      </c>
+      <c r="K49" t="s">
+        <v>332</v>
+      </c>
+      <c r="L49" t="s">
+        <v>333</v>
+      </c>
+      <c r="M49" t="n">
+        <v>3</v>
+      </c>
+      <c r="N49" t="s">
+        <v>334</v>
+      </c>
+      <c r="O49" t="s">
+        <v>53</v>
+      </c>
+      <c r="P49" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>4</v>
+      </c>
+      <c r="R49" t="n">
+        <v>3</v>
+      </c>
+      <c r="S49" t="n">
+        <v>4</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>4</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>60880</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>335</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>336</v>
+      </c>
+      <c r="J50" t="s">
+        <v>337</v>
+      </c>
+      <c r="K50" t="s">
+        <v>338</v>
+      </c>
+      <c r="L50" t="s">
+        <v>339</v>
+      </c>
+      <c r="M50" t="n">
+        <v>4</v>
+      </c>
+      <c r="N50" t="s">
+        <v>340</v>
+      </c>
+      <c r="O50" t="s">
+        <v>66</v>
+      </c>
+      <c r="P50" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="s"/>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>4</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>60880</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>341</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>342</v>
+      </c>
+      <c r="J51" t="s">
+        <v>343</v>
+      </c>
+      <c r="K51" t="s"/>
+      <c r="L51" t="s"/>
+      <c r="M51" t="n">
+        <v>2</v>
+      </c>
+      <c r="N51" t="s">
+        <v>344</v>
+      </c>
+      <c r="O51" t="s">
+        <v>66</v>
+      </c>
+      <c r="P51" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>3</v>
+      </c>
+      <c r="R51" t="n">
+        <v>3</v>
+      </c>
+      <c r="S51" t="n">
+        <v>2</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>1</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>60880</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>345</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>346</v>
+      </c>
+      <c r="J52" t="s">
+        <v>347</v>
+      </c>
+      <c r="K52" t="s"/>
+      <c r="L52" t="s"/>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
+        <v>344</v>
+      </c>
+      <c r="O52" t="s">
+        <v>53</v>
+      </c>
+      <c r="P52" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>5</v>
+      </c>
+      <c r="R52" t="n">
+        <v>5</v>
+      </c>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>60880</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>348</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>349</v>
+      </c>
+      <c r="J53" t="s">
+        <v>350</v>
+      </c>
+      <c r="K53" t="s"/>
+      <c r="L53" t="s"/>
+      <c r="M53" t="n">
+        <v>2</v>
+      </c>
+      <c r="N53" t="s">
+        <v>351</v>
+      </c>
+      <c r="O53" t="s">
+        <v>53</v>
+      </c>
+      <c r="P53" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>1</v>
+      </c>
+      <c r="R53" t="n">
+        <v>1</v>
+      </c>
+      <c r="S53" t="n">
+        <v>1</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>1</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>60880</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>352</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>353</v>
+      </c>
+      <c r="J54" t="s">
+        <v>354</v>
+      </c>
+      <c r="K54" t="s"/>
+      <c r="L54" t="s"/>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>351</v>
+      </c>
+      <c r="O54" t="s">
+        <v>66</v>
+      </c>
+      <c r="P54" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>5</v>
+      </c>
+      <c r="R54" t="n">
+        <v>5</v>
+      </c>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>60880</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>355</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>356</v>
+      </c>
+      <c r="J55" t="s">
+        <v>357</v>
+      </c>
+      <c r="K55" t="s">
+        <v>358</v>
+      </c>
+      <c r="L55" t="s">
+        <v>359</v>
+      </c>
+      <c r="M55" t="n">
+        <v>1</v>
+      </c>
+      <c r="N55" t="s">
+        <v>360</v>
+      </c>
+      <c r="O55" t="s">
+        <v>59</v>
+      </c>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="s"/>
+      <c r="S55" t="s"/>
+      <c r="T55" t="s"/>
+      <c r="U55" t="s"/>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>60880</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>361</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>362</v>
+      </c>
+      <c r="J56" t="s">
+        <v>363</v>
+      </c>
+      <c r="K56" t="s"/>
+      <c r="L56" t="s"/>
+      <c r="M56" t="n">
+        <v>4</v>
+      </c>
+      <c r="N56" t="s">
+        <v>364</v>
+      </c>
+      <c r="O56" t="s">
+        <v>85</v>
+      </c>
+      <c r="P56" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>4</v>
+      </c>
+      <c r="R56" t="n">
+        <v>5</v>
+      </c>
+      <c r="S56" t="n">
+        <v>4</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>3</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>60880</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>365</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>366</v>
+      </c>
+      <c r="J57" t="s">
+        <v>367</v>
+      </c>
+      <c r="K57" t="s"/>
+      <c r="L57" t="s"/>
+      <c r="M57" t="n">
+        <v>4</v>
+      </c>
+      <c r="N57" t="s">
+        <v>368</v>
+      </c>
+      <c r="O57" t="s">
+        <v>66</v>
+      </c>
+      <c r="P57" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>5</v>
+      </c>
+      <c r="R57" t="n">
+        <v>5</v>
+      </c>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>60880</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>369</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>370</v>
+      </c>
+      <c r="J58" t="s">
+        <v>371</v>
+      </c>
+      <c r="K58" t="s"/>
+      <c r="L58" t="s"/>
+      <c r="M58" t="n">
+        <v>2</v>
+      </c>
+      <c r="N58" t="s">
+        <v>364</v>
+      </c>
+      <c r="O58" t="s">
+        <v>78</v>
+      </c>
+      <c r="P58" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>4</v>
+      </c>
+      <c r="R58" t="n">
+        <v>1</v>
+      </c>
+      <c r="S58" t="n">
+        <v>2</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>2</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>60880</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>372</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>373</v>
+      </c>
+      <c r="J59" t="s">
+        <v>374</v>
+      </c>
+      <c r="K59" t="s">
+        <v>375</v>
+      </c>
+      <c r="L59" t="s">
+        <v>376</v>
+      </c>
+      <c r="M59" t="n">
+        <v>3</v>
+      </c>
+      <c r="N59" t="s">
+        <v>377</v>
+      </c>
+      <c r="O59" t="s">
+        <v>85</v>
+      </c>
+      <c r="P59" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>3</v>
+      </c>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="n">
+        <v>4</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>3</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>60880</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>378</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>379</v>
+      </c>
+      <c r="J60" t="s">
+        <v>380</v>
+      </c>
+      <c r="K60" t="s">
+        <v>381</v>
+      </c>
+      <c r="L60" t="s">
+        <v>382</v>
+      </c>
+      <c r="M60" t="n">
+        <v>4</v>
+      </c>
+      <c r="N60" t="s">
+        <v>377</v>
+      </c>
+      <c r="O60" t="s">
+        <v>85</v>
+      </c>
+      <c r="P60" t="s"/>
+      <c r="Q60" t="s"/>
+      <c r="R60" t="s"/>
+      <c r="S60" t="s"/>
+      <c r="T60" t="s"/>
+      <c r="U60" t="s"/>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>60880</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>383</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>384</v>
+      </c>
+      <c r="J61" t="s">
+        <v>385</v>
+      </c>
+      <c r="K61" t="s">
+        <v>386</v>
+      </c>
+      <c r="L61" t="s">
+        <v>387</v>
+      </c>
+      <c r="M61" t="n">
+        <v>1</v>
+      </c>
+      <c r="N61" t="s">
+        <v>388</v>
+      </c>
+      <c r="O61" t="s">
+        <v>85</v>
+      </c>
+      <c r="P61" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>1</v>
+      </c>
+      <c r="R61" t="n">
+        <v>2</v>
+      </c>
+      <c r="S61" t="n">
+        <v>1</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>1</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>60880</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>389</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>390</v>
+      </c>
+      <c r="J62" t="s">
+        <v>391</v>
+      </c>
+      <c r="K62" t="s"/>
+      <c r="L62" t="s"/>
+      <c r="M62" t="n">
+        <v>4</v>
+      </c>
+      <c r="N62" t="s">
+        <v>392</v>
+      </c>
+      <c r="O62" t="s">
+        <v>66</v>
+      </c>
+      <c r="P62" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>4</v>
+      </c>
+      <c r="R62" t="n">
+        <v>4</v>
+      </c>
+      <c r="S62" t="n">
+        <v>4</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>3</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>60880</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>393</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>394</v>
+      </c>
+      <c r="J63" t="s">
+        <v>395</v>
+      </c>
+      <c r="K63" t="s"/>
+      <c r="L63" t="s"/>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s">
+        <v>396</v>
+      </c>
+      <c r="O63" t="s">
+        <v>66</v>
+      </c>
+      <c r="P63" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>5</v>
+      </c>
+      <c r="R63" t="n">
+        <v>5</v>
+      </c>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s"/>
     </row>
   </sheetData>
 </worksheet>

--- a/data/hotels_by_city/Houston/Houston_shard_636.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_636.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="615">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -150,18 +150,48 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/13/2018</t>
+    <t>09/10/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1948994-r592603736-Super_8_by_Wyndham_LaPorte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>56110</t>
+  </si>
+  <si>
+    <t>1948994</t>
+  </si>
+  <si>
+    <t>592603736</t>
+  </si>
+  <si>
+    <t>07/02/2018</t>
+  </si>
+  <si>
+    <t>Pleasant surprise</t>
+  </si>
+  <si>
+    <t>This is a very clean hotel, staff very accommodating and friendly. My family has stayed at hotels from budget to 5-star and this one is by far the best budget friendly one we have visited. The pool was exceptionally clean. We will stay here again!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>ManagementLP8, Manager at Super 8 by Wyndham LaPorte, responded to this reviewResponded July 25, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 25, 2018</t>
+  </si>
+  <si>
+    <t>This is a very clean hotel, staff very accommodating and friendly. My family has stayed at hotels from budget to 5-star and this one is by far the best budget friendly one we have visited. The pool was exceptionally clean. We will stay here again!More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1948994-r560632247-Super_8_by_Wyndham_LaPorte-La_Porte_Texas.html</t>
   </si>
   <si>
-    <t>56110</t>
-  </si>
-  <si>
-    <t>1948994</t>
-  </si>
-  <si>
     <t>560632247</t>
   </si>
   <si>
@@ -177,7 +207,16 @@
     <t>February 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1948994-r561314575-Super_8_by_Wyndham_LaPorte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>561314575</t>
+  </si>
+  <si>
+    <t>02/18/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1948994-r559186279-Super_8_by_Wyndham_LaPorte-La_Porte_Texas.html</t>
@@ -219,24 +258,57 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1948994-r546121260-Super_8_by_Wyndham_LaPorte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>546121260</t>
+  </si>
+  <si>
+    <t>12/08/2017</t>
+  </si>
+  <si>
+    <t>Excellent for price point</t>
+  </si>
+  <si>
+    <t>I was a little concerned when my husband told me he had booked us a room at a Super 8.  I had my mind made up that the quality and cleanliness would be lacking, I was wrong.  This hotel was very clean, appealing and seemed to be recently updated.  I would recommend this hotel.</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1948994-r540798101-Super_8_by_Wyndham_LaPorte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>540798101</t>
+  </si>
+  <si>
+    <t>11/13/2017</t>
+  </si>
+  <si>
+    <t>WORST MANAGEMENT AND CUSTOMER SERVICE EVER</t>
+  </si>
+  <si>
+    <t>I Booked my reservation online and he refused to complete my reservation because I had used my husbands card online. He called me the "B" word and told me to get the F out of the door. I informed him this was very unprofessional and I would never stay with Super 8 ever again. He even gave me the middle finger in the window as I was leaving.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>ManagementLP8, Manager at Super 8 by Wyndham LaPorte, responded to this reviewResponded November 14, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 14, 2017</t>
+  </si>
+  <si>
+    <t>I Booked my reservation online and he refused to complete my reservation because I had used my husbands card online. He called me the "B" word and told me to get the F out of the door. I informed him this was very unprofessional and I would never stay with Super 8 ever again. He even gave me the middle finger in the window as I was leaving.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1948994-r540692154-Super_8_by_Wyndham_LaPorte-La_Porte_Texas.html</t>
   </si>
   <si>
     <t>540692154</t>
   </si>
   <si>
-    <t>11/13/2017</t>
-  </si>
-  <si>
-    <t>Excellent value</t>
-  </si>
-  <si>
-    <t>They have playpen available as baby crib. They don't allow you to reserve it but was thankfully available when we checked in. You'll want to layer a few sheets on it as it's quite hard. The rooms were obviously recently refurbished and felt like you were in a + star hotel. The continental breakfast is nothing to write home about, but did the job. Free wifi was very fast and we were able to stream videos.</t>
-  </si>
-  <si>
-    <t>November 2017</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1948994-r539529038-Super_8_by_Wyndham_LaPorte-La_Porte_Texas.html</t>
   </si>
   <si>
@@ -252,9 +324,6 @@
     <t>I gave this hotel three stars for the fact they had a room after the other Super 8 canceled our booking during the Lone Star Bike Rally. The three stars come from the location which was 40 miles away from the rally. Which isn't the hotel's fault. However, I would have given a solid 5 stars as the staff was nice and the rooms were clean (we ended up in a smoking room). Again the room was clean. Why I didn't give them a 5 star. The last night of our stay. My husband was in the shower. He slipped and fell and hit his rib and knee on the tub and toilet. There was no nonskid in the tub which it was easy to slip on. I almost took a fall a few times. When my husband fell he took the shower curtain and rod with him. This caused the rod to took half the wall out. Now, this should tell you how bad of a fall this was. Lucky my husband is young. This could have been an older person. When we reported to the staff they were very nice and told us not to worry about the damage. However, they said they have mats that upon request we could have had. Well, that is nice to know a little to late. Again, if it wasn't for that major fall and that safety concern. This is a great...I gave this hotel three stars for the fact they had a room after the other Super 8 canceled our booking during the Lone Star Bike Rally. The three stars come from the location which was 40 miles away from the rally. Which isn't the hotel's fault. However, I would have given a solid 5 stars as the staff was nice and the rooms were clean (we ended up in a smoking room). Again the room was clean. Why I didn't give them a 5 star. The last night of our stay. My husband was in the shower. He slipped and fell and hit his rib and knee on the tub and toilet. There was no nonskid in the tub which it was easy to slip on. I almost took a fall a few times. When my husband fell he took the shower curtain and rod with him. This caused the rod to took half the wall out. Now, this should tell you how bad of a fall this was. Lucky my husband is young. This could have been an older person. When we reported to the staff they were very nice and told us not to worry about the damage. However, they said they have mats that upon request we could have had. Well, that is nice to know a little to late. Again, if it wasn't for that major fall and that safety concern. This is a great hotel. I just hope this can be fixed for future customers.MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>I gave this hotel three stars for the fact they had a room after the other Super 8 canceled our booking during the Lone Star Bike Rally. The three stars come from the location which was 40 miles away from the rally. Which isn't the hotel's fault. However, I would have given a solid 5 stars as the staff was nice and the rooms were clean (we ended up in a smoking room). Again the room was clean. Why I didn't give them a 5 star. The last night of our stay. My husband was in the shower. He slipped and fell and hit his rib and knee on the tub and toilet. There was no nonskid in the tub which it was easy to slip on. I almost took a fall a few times. When my husband fell he took the shower curtain and rod with him. This caused the rod to took half the wall out. Now, this should tell you how bad of a fall this was. Lucky my husband is young. This could have been an older person. When we reported to the staff they were very nice and told us not to worry about the damage. However, they said they have mats that upon request we could have had. Well, that is nice to know a little to late. Again, if it wasn't for that major fall and that safety concern. This is a great...I gave this hotel three stars for the fact they had a room after the other Super 8 canceled our booking during the Lone Star Bike Rally. The three stars come from the location which was 40 miles away from the rally. Which isn't the hotel's fault. However, I would have given a solid 5 stars as the staff was nice and the rooms were clean (we ended up in a smoking room). Again the room was clean. Why I didn't give them a 5 star. The last night of our stay. My husband was in the shower. He slipped and fell and hit his rib and knee on the tub and toilet. There was no nonskid in the tub which it was easy to slip on. I almost took a fall a few times. When my husband fell he took the shower curtain and rod with him. This caused the rod to took half the wall out. Now, this should tell you how bad of a fall this was. Lucky my husband is young. This could have been an older person. When we reported to the staff they were very nice and told us not to worry about the damage. However, they said they have mats that upon request we could have had. Well, that is nice to know a little to late. Again, if it wasn't for that major fall and that safety concern. This is a great hotel. I just hope this can be fixed for future customers.More</t>
   </si>
   <si>
@@ -276,6 +345,33 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1948994-r538102614-Super_8_by_Wyndham_LaPorte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>538102614</t>
+  </si>
+  <si>
+    <t>11/03/2017</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1948994-r537715457-Super_8_by_Wyndham_LaPorte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>537715457</t>
+  </si>
+  <si>
+    <t>11/01/2017</t>
+  </si>
+  <si>
+    <t>won’t stay again</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Room was damp and stunk , ac/heat didn’t work they had no extra blankets , they told me to come get a space heater they didn’t offer to bring it up . Had to buy air spray to help with smell , look fir other hotels but they was all booked up we won’t stay there again ! And breakfast sucked  </t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1948994-r536301798-Super_8_by_Wyndham_LaPorte-La_Porte_Texas.html</t>
   </si>
   <si>
@@ -291,9 +387,6 @@
     <t>All hotels were full and I called Super 8 as a last resort. Due to we have never stayed at a Super 8. I would like to say it was very clean and the room was big. The staff was very helpful and would highly recommend staying here. If we are ever in this area again we will not hesitate to stay here. Thank you!</t>
   </si>
   <si>
-    <t>October 2017</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1948994-r508467335-Super_8_by_Wyndham_LaPorte-La_Porte_Texas.html</t>
   </si>
   <si>
@@ -327,6 +420,39 @@
     <t>I really enjoyed my stay. The rooms were clean the staff was nice. I would recommend this place to friends and family.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1948994-r508279783-Super_8_by_Wyndham_LaPorte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>508279783</t>
+  </si>
+  <si>
+    <t>08/02/2017</t>
+  </si>
+  <si>
+    <t>Nothing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The King Size Room was nice and comfortable. We did not eat the breakfast. The pool was nice, but they really need to update the tables and chairs for the pool area! Only had 2 chairs to sit on which were the cheap ones, they were cracked so had to take chances to sit in. Only had 2 lounge chairs, one was broke the other was ok. </t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1948994-r505585790-Super_8_by_Wyndham_LaPorte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>505585790</t>
+  </si>
+  <si>
+    <t>07/25/2017</t>
+  </si>
+  <si>
+    <t>Decent place to stay</t>
+  </si>
+  <si>
+    <t>Room was very clean, a/c was quiet, everything worked in the room.  Only complaint was there should be 2 waffle irons at breakfast.  This hotel is close to Sylvan Park which is the beach park.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1948994-r503040453-Super_8_by_Wyndham_LaPorte-La_Porte_Texas.html</t>
   </si>
   <si>
@@ -372,6 +498,36 @@
     <t>June 2017</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1948994-r495728887-Super_8_by_Wyndham_LaPorte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>495728887</t>
+  </si>
+  <si>
+    <t>06/24/2017</t>
+  </si>
+  <si>
+    <t>Fun, Clean</t>
+  </si>
+  <si>
+    <t>Nice staff, nice pool, Breakfast was horrible and stale but other than that Amazing choice of hotel. maybe change up breakfast. but the rooms are set up clean and nice but maybe change the bed covers every once in a while because i understand things stain but it needs changed.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1948994-r492866793-Super_8_by_Wyndham_LaPorte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>492866793</t>
+  </si>
+  <si>
+    <t>06/13/2017</t>
+  </si>
+  <si>
+    <t>Bad hotel choice</t>
+  </si>
+  <si>
+    <t>ALL rooms smell strongly of mold and mildew...EVERY ONE.  I asked about a different room, and was told that "this is standard". They even took us to another room to show us. I stopped another gust and he confirmed his room smelled like it too.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1948994-r491637437-Super_8_by_Wyndham_LaPorte-La_Porte_Texas.html</t>
   </si>
   <si>
@@ -405,6 +561,36 @@
     <t>06/05/2017</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1948994-r486606920-Super_8_by_Wyndham_LaPorte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>486606920</t>
+  </si>
+  <si>
+    <t>05/22/2017</t>
+  </si>
+  <si>
+    <t>Elevators did not work</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The elevators were out, as we were going on a cruise for a week we have a lot of luggage which all had to be carried upstairs without a working elevator and no apologies or help. Breakfast items were extremely limited and stale. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1948994-r485965918-Super_8_by_Wyndham_LaPorte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>485965918</t>
+  </si>
+  <si>
+    <t>05/20/2017</t>
+  </si>
+  <si>
+    <t>Nice stay over for business</t>
+  </si>
+  <si>
+    <t>Almost everything was great about this location. The service of the staff, I onky interacted at check in, was something to be desired. Very quiet no chatting. I prefer a soft mattress, the mattress of where I slept is too firm for my liking. Get a softer mattress with friendlier staff and get 5 stars. #myopinion</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1948994-r481446287-Super_8_by_Wyndham_LaPorte-La_Porte_Texas.html</t>
   </si>
   <si>
@@ -453,6 +639,36 @@
     <t>The managers and people at the Super 8 LaPorte are very friendly people who provide a nice secure place to stay.  More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1948994-r427005337-Super_8_by_Wyndham_LaPorte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>427005337</t>
+  </si>
+  <si>
+    <t>10/11/2016</t>
+  </si>
+  <si>
+    <t>MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1948994-r424449359-Super_8_by_Wyndham_LaPorte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>424449359</t>
+  </si>
+  <si>
+    <t>10/02/2016</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1948994-r423966478-Super_8_by_Wyndham_LaPorte-La_Porte_Texas.html</t>
   </si>
   <si>
@@ -468,9 +684,6 @@
     <t>I asked for a non smoking room and the entire third floor smells like tobacco, the room wasnt that clean, lots of carpet stains. Room was pricey, breakwast was ok, nothing great, price was moderate, consider an alternative if youre staying there for long.MoreShow less</t>
   </si>
   <si>
-    <t>September 2016</t>
-  </si>
-  <si>
     <t>ManagementLP8, Manager at Super 8 by Wyndham LaPorte, responded to this reviewResponded October 1, 2016</t>
   </si>
   <si>
@@ -525,6 +738,57 @@
     <t>I will say the hotel is clean however there are a few things that could be improved.  First thing the outside pool furniture is in very bad shape. They have plastic furniture that needs replaced.  When I sat down on a chair it collapsed. I weigh 150 lbs. When the chair collapsed I busted open my knuckle and scraped my leg trying to catch myself.  When I looked for a new chair, I found multiple with cracked legs. The sun chairs only one was in good shape the other one was cracked down the middle. When I went for a bandaid at the front desk and told them what happened the woman didn't speak English very well.  Also the shower creeked a little when standing in it. At least it was clean, however condition of certain things left more to be desired.  I'm glad we are only staying one night.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1948994-r402268193-Super_8_by_Wyndham_LaPorte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>402268193</t>
+  </si>
+  <si>
+    <t>08/06/2016</t>
+  </si>
+  <si>
+    <t>Weekend getaway</t>
+  </si>
+  <si>
+    <t>Me and my husband stay here everytime we go on a weekend getaway.  It is close to Kemah and Galveston without the outrageous rates on the island. This hotel is always exceptional. Fantastic rooms, great rates and staff. MoreShow less</t>
+  </si>
+  <si>
+    <t>ManagementLP8, Manager at Super 8 by Wyndham LaPorte, responded to this reviewResponded August 9, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 9, 2016</t>
+  </si>
+  <si>
+    <t>Me and my husband stay here everytime we go on a weekend getaway.  It is close to Kemah and Galveston without the outrageous rates on the island. This hotel is always exceptional. Fantastic rooms, great rates and staff. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1948994-r389936628-Super_8_by_Wyndham_LaPorte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>389936628</t>
+  </si>
+  <si>
+    <t>07/06/2016</t>
+  </si>
+  <si>
+    <t>Fun in the sun at Super 8</t>
+  </si>
+  <si>
+    <t>My stay was a 10. My room was clean , cool,  and comfortable. The staff was courteous,  and ,informative. The breakfast was tasty, right temperature and filling, and parking was great.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>ManagementLP8, General Manager at Super 8 by Wyndham LaPorte, responded to this reviewResponded July 8, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 8, 2016</t>
+  </si>
+  <si>
+    <t>My stay was a 10. My room was clean , cool,  and comfortable. The staff was courteous,  and ,informative. The breakfast was tasty, right temperature and filling, and parking was great.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1948994-r384624393-Super_8_by_Wyndham_LaPorte-La_Porte_Texas.html</t>
   </si>
   <si>
@@ -534,15 +798,9 @@
     <t>06/21/2016</t>
   </si>
   <si>
-    <t>MoreShow less</t>
-  </si>
-  <si>
     <t>June 2016</t>
   </si>
   <si>
-    <t>More</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1948994-r382760570-Super_8_by_Wyndham_LaPorte-La_Porte_Texas.html</t>
   </si>
   <si>
@@ -585,6 +843,48 @@
     <t>Responded May 30, 2016</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1948994-r367991137-Super_8_by_Wyndham_LaPorte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>367991137</t>
+  </si>
+  <si>
+    <t>04/26/2016</t>
+  </si>
+  <si>
+    <t>Work Stay</t>
+  </si>
+  <si>
+    <t>Motel is great, management is very helpful, rooms are very clean.  Here on work and have been staying here for 2 months.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>Motel is great, management is very helpful, rooms are very clean.  Here on work and have been staying here for 2 months.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1948994-r365416090-Super_8_by_Wyndham_LaPorte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>365416090</t>
+  </si>
+  <si>
+    <t>04/19/2016</t>
+  </si>
+  <si>
+    <t>Super 8 Laporte Exceeds Expectations</t>
+  </si>
+  <si>
+    <t>Room was clean, comfortable and quiet. Rate was reasonable for the area. Location was convenient. Staff was extremely hospitable and helpful.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>Room was clean, comfortable and quiet. Rate was reasonable for the area. Location was convenient. Staff was extremely hospitable and helpful.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1948994-r358047536-Super_8_by_Wyndham_LaPorte-La_Porte_Texas.html</t>
   </si>
   <si>
@@ -600,9 +900,6 @@
     <t xml:space="preserve">We chose this hotel because it was close to our cruise embarkation point.  The building is new...ish, clean...ish and more then adequate for an overnight stay.  The front desk staff wasn't the friendliest I've ever encountered. While a newish building it was showing signs of neglect or abuse, probably due to it's location in the refinery district. Overall though, it worked and if we left from that particular port again, I would consider the hotel again. </t>
   </si>
   <si>
-    <t>February 2016</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1948994-r355658304-Super_8_by_Wyndham_LaPorte-La_Porte_Texas.html</t>
   </si>
   <si>
@@ -645,6 +942,36 @@
     <t>Responded March 10, 2016</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1948994-r350035505-Super_8_by_Wyndham_LaPorte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>350035505</t>
+  </si>
+  <si>
+    <t>02/22/2016</t>
+  </si>
+  <si>
+    <t>ManagementLP8, General Manager at Super 8 by Wyndham LaPorte, responded to this reviewResponded February 25, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 25, 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1948994-r349446790-Super_8_by_Wyndham_LaPorte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>349446790</t>
+  </si>
+  <si>
+    <t>02/20/2016</t>
+  </si>
+  <si>
+    <t>The place was relatively clean and the customer service was alright</t>
+  </si>
+  <si>
+    <t>The place was relatively clean and the customer service was alright. Would have expected a bit more for the price. Breakfast was rather limited (DIY pancakes, bananas, pastry, and juice). It's conveniently located within walking distance of a shopping square (Groceries, Gas, etc.).</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1948994-r346590629-Super_8_by_Wyndham_LaPorte-La_Porte_Texas.html</t>
   </si>
   <si>
@@ -687,6 +1014,42 @@
     <t>My son had a visit at the nearby San Jacinto college and we stayed here for one night. The room though appearing clean and a strange musty odor.  The breakfast is rather limited and the staff friendly enough.  My overall impression of the place is "meh"</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1948994-r342441929-Super_8_by_Wyndham_LaPorte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>342441929</t>
+  </si>
+  <si>
+    <t>01/24/2016</t>
+  </si>
+  <si>
+    <t>The perfect location for our purposes and a friendly face at the front desk too!</t>
+  </si>
+  <si>
+    <t>We chose this location because we wanted a spot close to the cruise port.  There was a nice young man, Manesh, at the front desk when we checked in on a Friday night and he was there again Saturday morning.  This is a family-owned Super 8 and he must have drawn the short straw.  Regardless of how tired he must have been, he was very nice and very helpful to us.  He called for transportation for us to the cruise port and even took the initiative to follow up with the shuttle company when he saw we were still waiting some time later.  The room was just fine - no problems, we felt safe, and breakfast was adequate but carb-laden, but then that is the same with most hotel breakfasts.MoreShow less</t>
+  </si>
+  <si>
+    <t>We chose this location because we wanted a spot close to the cruise port.  There was a nice young man, Manesh, at the front desk when we checked in on a Friday night and he was there again Saturday morning.  This is a family-owned Super 8 and he must have drawn the short straw.  Regardless of how tired he must have been, he was very nice and very helpful to us.  He called for transportation for us to the cruise port and even took the initiative to follow up with the shuttle company when he saw we were still waiting some time later.  The room was just fine - no problems, we felt safe, and breakfast was adequate but carb-laden, but then that is the same with most hotel breakfasts.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1948994-r341958985-Super_8_by_Wyndham_LaPorte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>341958985</t>
+  </si>
+  <si>
+    <t>01/22/2016</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>ManagementLP8, General Manager at Super 8 by Wyndham LaPorte, responded to this reviewResponded January 23, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 23, 2016</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1948994-r340115011-Super_8_by_Wyndham_LaPorte-La_Porte_Texas.html</t>
   </si>
   <si>
@@ -741,9 +1104,6 @@
     <t>I originally booked a King Size room. Turns out once I get to the hotel they give me my keys and as I'm about to walk off to my room they call me back saying there was an inconvenience with my room. This room is out of order and we can give you another room. I waited 20 minutes before they assigned another set of keys and told me it should be good now as they've given me a new room. I go upstairs to the 3rd floor and once I get to my room my keys didn't seem to work. So I go back downstairs to tell them and they tell me 'im sorry but the only room we have available now is a double queen which is a smoking'. I had spent 40 minutes at the reception just to find out that I'm not going to get my King Size room. I am very disappointed and would not recommend this to anyone ever. Not easy or convenient at all.MoreShow less</t>
   </si>
   <si>
-    <t>December 2015</t>
-  </si>
-  <si>
     <t>ManagementLP8, General Manager at Super 8 by Wyndham LaPorte, responded to this reviewResponded December 9, 2015</t>
   </si>
   <si>
@@ -753,6 +1113,45 @@
     <t>I originally booked a King Size room. Turns out once I get to the hotel they give me my keys and as I'm about to walk off to my room they call me back saying there was an inconvenience with my room. This room is out of order and we can give you another room. I waited 20 minutes before they assigned another set of keys and told me it should be good now as they've given me a new room. I go upstairs to the 3rd floor and once I get to my room my keys didn't seem to work. So I go back downstairs to tell them and they tell me 'im sorry but the only room we have available now is a double queen which is a smoking'. I had spent 40 minutes at the reception just to find out that I'm not going to get my King Size room. I am very disappointed and would not recommend this to anyone ever. Not easy or convenient at all.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1948994-r316949964-Super_8_by_Wyndham_LaPorte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>316949964</t>
+  </si>
+  <si>
+    <t>10/07/2015</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1948994-r304835614-Super_8_by_Wyndham_LaPorte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>304835614</t>
+  </si>
+  <si>
+    <t>08/29/2015</t>
+  </si>
+  <si>
+    <t>Nice and comfy</t>
+  </si>
+  <si>
+    <t>This is a very nice hotel. The beds were very comfy. I slept like a baby after a long drive. The staff was friendly and knowledgeable about the area. I enjoyed the free breakfast as well. The indoor pool is very small and the hot tub was NOT hot at all. That's probably my only complaint. I'd stay here again. Thanks! MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>ManagementLP8, Front Office Manager at Super 8 by Wyndham LaPorte, responded to this reviewResponded October 21, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 21, 2015</t>
+  </si>
+  <si>
+    <t>This is a very nice hotel. The beds were very comfy. I slept like a baby after a long drive. The staff was friendly and knowledgeable about the area. I enjoyed the free breakfast as well. The indoor pool is very small and the hot tub was NOT hot at all. That's probably my only complaint. I'd stay here again. Thanks! More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1948994-r302692106-Super_8_by_Wyndham_LaPorte-La_Porte_Texas.html</t>
   </si>
   <si>
@@ -804,7 +1203,37 @@
     <t>07/24/2015</t>
   </si>
   <si>
-    <t>July 2015</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1948994-r287724972-Super_8_by_Wyndham_LaPorte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>287724972</t>
+  </si>
+  <si>
+    <t>07/10/2015</t>
+  </si>
+  <si>
+    <t>decent stay</t>
+  </si>
+  <si>
+    <t>Lady at the front desk was extremely rude and short to answer any questions.  A/C wasn't working and breakfast was limited. I won't be staying at this location again.  Seriously thinking about getting away from the Wyndham chain all together! MoreShow less</t>
+  </si>
+  <si>
+    <t>ManagementLP8, Front Office Manager at Super 8 by Wyndham LaPorte, responded to this reviewResponded July 16, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 16, 2015</t>
+  </si>
+  <si>
+    <t>Lady at the front desk was extremely rude and short to answer any questions.  A/C wasn't working and breakfast was limited. I won't be staying at this location again.  Seriously thinking about getting away from the Wyndham chain all together! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1948994-r286561155-Super_8_by_Wyndham_LaPorte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>286561155</t>
+  </si>
+  <si>
+    <t>07/07/2015</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1948994-r286249009-Super_8_by_Wyndham_LaPorte-La_Porte_Texas.html</t>
@@ -822,12 +1251,6 @@
     <t>The continental breakfast was something I was grateful to have, I just wish there had of been more options than a waffle and cereal. There were packaged pastries as well but that's more vending machine stuff. The air condition in the room was fabulous as was the speedy way the water got warm. Unfortunately, the wifi was constantly cutting in and out. I suspect they just didn't have enough bandwidth because when I was up super late one night, it worked pretty well for a while but any other time was very touch and go. The bed was more stiff than I'm used to and the pillows were super squishy. The staff was helpful though which made it a nice experience.MoreShow less</t>
   </si>
   <si>
-    <t>ManagementLP8, Front Office Manager at Super 8 by Wyndham LaPorte, responded to this reviewResponded July 16, 2015</t>
-  </si>
-  <si>
-    <t>Responded July 16, 2015</t>
-  </si>
-  <si>
     <t>The continental breakfast was something I was grateful to have, I just wish there had of been more options than a waffle and cereal. There were packaged pastries as well but that's more vending machine stuff. The air condition in the room was fabulous as was the speedy way the water got warm. Unfortunately, the wifi was constantly cutting in and out. I suspect they just didn't have enough bandwidth because when I was up super late one night, it worked pretty well for a while but any other time was very touch and go. The bed was more stiff than I'm used to and the pillows were super squishy. The staff was helpful though which made it a nice experience.More</t>
   </si>
   <si>
@@ -861,6 +1284,45 @@
     <t>Responded June 3, 2015</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1948994-r275064726-Super_8_by_Wyndham_LaPorte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>275064726</t>
+  </si>
+  <si>
+    <t>05/27/2015</t>
+  </si>
+  <si>
+    <t>we were leaving on a cruise, and it is close to the port, and they have a shuttle to the port</t>
+  </si>
+  <si>
+    <t>This hotel was very nice with non-smoking rooms and a very complete breakfast selection.  We were leaving on a cruise and this was close to the port, and they had a shuttle to the port at a reasonable rateMoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>This hotel was very nice with non-smoking rooms and a very complete breakfast selection.  We were leaving on a cruise and this was close to the port, and they had a shuttle to the port at a reasonable rateMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1948994-r270718184-Super_8_by_Wyndham_LaPorte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>270718184</t>
+  </si>
+  <si>
+    <t>05/08/2015</t>
+  </si>
+  <si>
+    <t>pleasant stay; good cruise overnight</t>
+  </si>
+  <si>
+    <t>Stayed here prior to a Norwegian cruise in April.....worked well--- $8 per person for shuttle to pier.  Accomodationsare a bargain.  15 minute walk to retail stores.  Would go back.MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed here prior to a Norwegian cruise in April.....worked well--- $8 per person for shuttle to pier.  Accomodationsare a bargain.  15 minute walk to retail stores.  Would go back.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1948994-r269825206-Super_8_by_Wyndham_LaPorte-La_Porte_Texas.html</t>
   </si>
   <si>
@@ -900,9 +1362,6 @@
     <t>The stay was very nice, the rooms were clean and neat. The motel looks to be newer and well decorated. If in the area in the future, I would stay there again.  MoreShow less</t>
   </si>
   <si>
-    <t>April 2015</t>
-  </si>
-  <si>
     <t>The stay was very nice, the rooms were clean and neat. The motel looks to be newer and well decorated. If in the area in the future, I would stay there again.  More</t>
   </si>
   <si>
@@ -921,6 +1380,33 @@
     <t>I liked this super 8. Was nice and well priced. Friendly staff. Close to the grocery store and other things. Easy on and off access.            The one bedroom room was clean and well laid out. Had a work table, microwave, fridge, and a comfy chair to relax. Bed was big and comfy too.  Plenty of room to move around in bathroom and we'll stocked with towels and even a hairdryer too.               Only bad thing was they had a small parking lot - yes I'm a truck driver and have my semi truck with me. But glad they let me stay. Overall would stay again</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1948994-r262769411-Super_8_by_Wyndham_LaPorte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>262769411</t>
+  </si>
+  <si>
+    <t>03/30/2015</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1948994-r262159768-Super_8_by_Wyndham_LaPorte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>262159768</t>
+  </si>
+  <si>
+    <t>03/27/2015</t>
+  </si>
+  <si>
+    <t>Just OK</t>
+  </si>
+  <si>
+    <t>OK for a couple of nights,Large clean rooms,Easy to find,Friendly staff,Basic continental breakfast,OK location but at the side of a major highway so some traffic noise.You have to travel by car to go to any eating places we found a nice whataburger in Seabrook which was nice for a fast food place better than Mcdonalds</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1948994-r259546116-Super_8_by_Wyndham_LaPorte-La_Porte_Texas.html</t>
   </si>
   <si>
@@ -936,9 +1422,6 @@
     <t xml:space="preserve">The room was newer and nice The beds were comfy and over all everthing seemed clean. The breakfast could use some help. Most places have more assortment of bread, pastries. There was no flavored coffee creamer only sugar, milk, and half and half. There was waffles but something seemed odd with the batter. I would stay here again but not count on breakfast. </t>
   </si>
   <si>
-    <t>March 2015</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1948994-r257381595-Super_8_by_Wyndham_LaPorte-La_Porte_Texas.html</t>
   </si>
   <si>
@@ -969,6 +1452,30 @@
     <t>January 2015</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1948994-r251353613-Super_8_by_Wyndham_LaPorte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>251353613</t>
+  </si>
+  <si>
+    <t>01/27/2015</t>
+  </si>
+  <si>
+    <t>Pleasantly Surprised</t>
+  </si>
+  <si>
+    <t>I am not particularly a fan of Super 8. This one was without a doubt the best one I have stayed in. First, it is inside corridors, and a room large enough to dwarf the king bed. I didn't know Super 8 allowed this. The only reason I didn't give it a 5, and the only reminder it is a Super 8 was the simple breakfast.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1948994-r250992176-Super_8_by_Wyndham_LaPorte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>250992176</t>
+  </si>
+  <si>
+    <t>01/25/2015</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1948994-r248613679-Super_8_by_Wyndham_LaPorte-La_Porte_Texas.html</t>
   </si>
   <si>
@@ -1023,6 +1530,36 @@
     <t>October 2014</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1948994-r230497222-Super_8_by_Wyndham_LaPorte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>230497222</t>
+  </si>
+  <si>
+    <t>09/23/2014</t>
+  </si>
+  <si>
+    <t>Clean and comfortable</t>
+  </si>
+  <si>
+    <t>Nothing fancy but clean and comfortable room. Had a problem with the internet connection which they fixed. Friendly staff.</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1948994-r222642469-Super_8_by_Wyndham_LaPorte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>222642469</t>
+  </si>
+  <si>
+    <t>08/18/2014</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1948994-r221885786-Super_8_by_Wyndham_LaPorte-La_Porte_Texas.html</t>
   </si>
   <si>
@@ -1038,9 +1575,6 @@
     <t>I recently stayed here for work, and had a comfortable stay. grounds are well maintained, parking is tight and tends to fill up quick. no problems at check in. was surprised to have to pay a 100 dollar deposit cause i was paying cash....as long as i got my money back. room was nice,clean and spacious with a nice flat screen. didn't eat breakfast or checkout the pool. i'd stay here again.</t>
   </si>
   <si>
-    <t>August 2014</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1948994-r217089623-Super_8_by_Wyndham_LaPorte-La_Porte_Texas.html</t>
   </si>
   <si>
@@ -1062,6 +1596,33 @@
     <t>07/13/2014</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1948994-r213838296-Super_8_by_Wyndham_LaPorte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>213838296</t>
+  </si>
+  <si>
+    <t>07/05/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1948994-r209955585-Super_8_by_Wyndham_LaPorte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>209955585</t>
+  </si>
+  <si>
+    <t>06/11/2014</t>
+  </si>
+  <si>
+    <t>Pleasant stay</t>
+  </si>
+  <si>
+    <t>The room was clean and very quiet. Nice to enjoy a flat-screen TV with inputs for my Ipad. I would stay there again.</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1948994-r207729558-Super_8_by_Wyndham_LaPorte-La_Porte_Texas.html</t>
   </si>
   <si>
@@ -1101,6 +1662,36 @@
     <t>April 2014</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1948994-r203768149-Super_8_by_Wyndham_LaPorte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>203768149</t>
+  </si>
+  <si>
+    <t>excellent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excellent housekeeping.rooms very clean,a/c works great.only bad part was continental breakfast,very limited choice and nobody around food area to refill or clean. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1948994-r203520332-Super_8_by_Wyndham_LaPorte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>203520332</t>
+  </si>
+  <si>
+    <t>04/30/2014</t>
+  </si>
+  <si>
+    <t>Rooms, pool and breakfast was pretty good, staff could be friendlier</t>
+  </si>
+  <si>
+    <t>The rooms were fine for the price, clean and smelt okay, the passage ways smelt a little smoky but once we got into our room we could no longer smell it.The only thing we did not like about this hotel is the staff, when we checked in the person at the front desk had absolutely zero people skills, did not make us feel welcome at all. In the morning at checkout there was a different person at desk, again not very friendly, did not even bother to ask if we enjoyed our stay etc. The only people that smiled at us were other guests in the elevators. They really should have staff with people skills working at these hotels, I am on a road trip with visitors from Australia and this does not set up a good feeling of American hospitality.MoreShow less</t>
+  </si>
+  <si>
+    <t>The rooms were fine for the price, clean and smelt okay, the passage ways smelt a little smoky but once we got into our room we could no longer smell it.The only thing we did not like about this hotel is the staff, when we checked in the person at the front desk had absolutely zero people skills, did not make us feel welcome at all. In the morning at checkout there was a different person at desk, again not very friendly, did not even bother to ask if we enjoyed our stay etc. The only people that smiled at us were other guests in the elevators. They really should have staff with people skills working at these hotels, I am on a road trip with visitors from Australia and this does not set up a good feeling of American hospitality.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1948994-r198225627-Super_8_by_Wyndham_LaPorte-La_Porte_Texas.html</t>
   </si>
   <si>
@@ -1134,6 +1725,33 @@
     <t>03/12/2014</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1948994-r195581244-Super_8_by_Wyndham_LaPorte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>195581244</t>
+  </si>
+  <si>
+    <t>02/27/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1948994-r190973723-Super_8_by_Wyndham_LaPorte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>190973723</t>
+  </si>
+  <si>
+    <t>01/15/2014</t>
+  </si>
+  <si>
+    <t>Worst of the worst!</t>
+  </si>
+  <si>
+    <t>Given room right behind elevators. Had to move because noise from elevator was horrible. Sounded like Mount St. Helens was erupting. We experienced the worst customer service in a while. Manager was rude &amp; insulting! Stayed on first floor which halls reaked of curry. Would never recommend. Would sleep under viaduct in downtown Houston before returning to this hotel!</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1948994-r185722953-Super_8_by_Wyndham_LaPorte-La_Porte_Texas.html</t>
   </si>
   <si>
@@ -1183,6 +1801,42 @@
   </si>
   <si>
     <t>October 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1948994-r175440792-Super_8_by_Wyndham_LaPorte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>175440792</t>
+  </si>
+  <si>
+    <t>09/03/2013</t>
+  </si>
+  <si>
+    <t>new hotel poor amenities</t>
+  </si>
+  <si>
+    <t>The best I can say is the hotel is new. The HBO advertised did not work. The HOT breakfast advertised was only a hot waffle. I stay in hotels over 300 nights per year due to work and these days almost all have hot eggs(even is instant) and sausage or bacon with a gravy. The guest laundry was $2 per machine where most are no more than $1.50. For the cost I would stay at one of the other hotels in the area. My non smoking room had cigarette burns in the bedspreads.</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1948994-r166848569-Super_8_by_Wyndham_LaPorte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>166848569</t>
+  </si>
+  <si>
+    <t>07/08/2013</t>
+  </si>
+  <si>
+    <t>Very clean!</t>
+  </si>
+  <si>
+    <t>My husband and I stayed at this hotel on our way home. This is the cleanest Super 8 I have seen in a while. The staff was very friendly! The only complaint I have which is petty was they did not have bagels  for breakfast, but that could have been we went down for breakfast at 8, as previously stated petty on my part! The coffee was excellent! They did have waffles and cereal but I do not do either of those for breakfast. I recommend this hotel for all the room we stayed in on the 3rd floor non smoking which is a plus. They have a small pool and if you want to go to the beach it is very close. It is about 15 minutes to Kemah without traffic. About 45 minutes from Galveston. I recommend this Super 8 and we will stay here the next time we are near La Porte TXMoreShow less</t>
+  </si>
+  <si>
+    <t>My husband and I stayed at this hotel on our way home. This is the cleanest Super 8 I have seen in a while. The staff was very friendly! The only complaint I have which is petty was they did not have bagels  for breakfast, but that could have been we went down for breakfast at 8, as previously stated petty on my part! The coffee was excellent! They did have waffles and cereal but I do not do either of those for breakfast. I recommend this hotel for all the room we stayed in on the 3rd floor non smoking which is a plus. They have a small pool and if you want to go to the beach it is very close. It is about 15 minutes to Kemah without traffic. About 45 minutes from Galveston. I recommend this Super 8 and we will stay here the next time we are near La Porte TXMore</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d1948994-r161455375-Super_8_by_Wyndham_LaPorte-La_Porte_Texas.html</t>
@@ -1741,7 +2395,7 @@
         <v>51</v>
       </c>
       <c r="M2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N2" t="s">
         <v>52</v>
@@ -1749,12 +2403,18 @@
       <c r="O2" t="s">
         <v>53</v>
       </c>
-      <c r="P2" t="s"/>
+      <c r="P2" t="n">
+        <v>5</v>
+      </c>
       <c r="Q2" t="n">
         <v>5</v>
       </c>
-      <c r="R2" t="s"/>
-      <c r="S2" t="s"/>
+      <c r="R2" t="n">
+        <v>4</v>
+      </c>
+      <c r="S2" t="n">
+        <v>4</v>
+      </c>
       <c r="T2" t="s"/>
       <c r="U2" t="n">
         <v>5</v>
@@ -1762,10 +2422,14 @@
       <c r="V2" t="n">
         <v>0</v>
       </c>
-      <c r="W2" t="s"/>
-      <c r="X2" t="s"/>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3">
@@ -1781,7 +2445,7 @@
         <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G3" t="s">
         <v>46</v>
@@ -1790,37 +2454,35 @@
         <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="M3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="O3" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R3" t="s"/>
-      <c r="S3" t="n">
-        <v>4</v>
-      </c>
+      <c r="S3" t="s"/>
       <c r="T3" t="s"/>
       <c r="U3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -1828,7 +2490,7 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4">
@@ -1844,7 +2506,7 @@
         <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G4" t="s">
         <v>46</v>
@@ -1853,50 +2515,44 @@
         <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K4" t="s"/>
+      <c r="L4" t="s"/>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
         <v>62</v>
-      </c>
-      <c r="K4" t="s">
-        <v>63</v>
-      </c>
-      <c r="L4" t="s">
-        <v>64</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="s">
-        <v>65</v>
       </c>
       <c r="O4" t="s">
         <v>66</v>
       </c>
       <c r="P4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T4" t="s"/>
       <c r="U4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
-      <c r="Y4" t="s">
-        <v>64</v>
-      </c>
+      <c r="Y4" t="s"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1932,23 +2588,19 @@
         <v>71</v>
       </c>
       <c r="M5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N5" t="s">
+        <v>62</v>
+      </c>
+      <c r="O5" t="s">
         <v>72</v>
       </c>
-      <c r="O5" t="s">
-        <v>53</v>
-      </c>
-      <c r="P5" t="n">
-        <v>5</v>
-      </c>
+      <c r="P5" t="s"/>
       <c r="Q5" t="n">
-        <v>5</v>
-      </c>
-      <c r="R5" t="n">
-        <v>3</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="R5" t="s"/>
       <c r="S5" t="n">
         <v>4</v>
       </c>
@@ -1999,29 +2651,29 @@
         <v>77</v>
       </c>
       <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>78</v>
+      </c>
+      <c r="O6" t="s">
+        <v>79</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1</v>
+      </c>
+      <c r="R6" t="n">
         <v>3</v>
       </c>
-      <c r="N6" t="s">
-        <v>72</v>
-      </c>
-      <c r="O6" t="s">
-        <v>78</v>
-      </c>
-      <c r="P6" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>3</v>
-      </c>
-      <c r="R6" t="n">
-        <v>2</v>
-      </c>
       <c r="S6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T6" t="s"/>
       <c r="U6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -2029,7 +2681,7 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7">
@@ -2066,24 +2718,20 @@
         <v>84</v>
       </c>
       <c r="M7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="O7" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
-      <c r="R7" t="n">
-        <v>5</v>
-      </c>
+      <c r="R7" t="s"/>
       <c r="S7" t="s"/>
       <c r="T7" t="s"/>
-      <c r="U7" t="n">
-        <v>5</v>
-      </c>
+      <c r="U7" t="s"/>
       <c r="V7" t="n">
         <v>0</v>
       </c>
@@ -2127,37 +2775,33 @@
         <v>90</v>
       </c>
       <c r="M8" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N8" t="s">
         <v>91</v>
       </c>
       <c r="O8" t="s">
-        <v>53</v>
-      </c>
-      <c r="P8" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>5</v>
-      </c>
-      <c r="R8" t="n">
-        <v>5</v>
-      </c>
-      <c r="S8" t="n">
-        <v>5</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
       <c r="T8" t="s"/>
       <c r="U8" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
-      <c r="W8" t="s"/>
-      <c r="X8" t="s"/>
+      <c r="W8" t="s">
+        <v>92</v>
+      </c>
+      <c r="X8" t="s">
+        <v>93</v>
+      </c>
       <c r="Y8" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9">
@@ -2173,7 +2817,7 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="G9" t="s">
         <v>46</v>
@@ -2182,37 +2826,37 @@
         <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="J9" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="K9" t="s"/>
       <c r="L9" t="s"/>
       <c r="M9" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="O9" t="s">
         <v>53</v>
       </c>
       <c r="P9" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q9" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S9" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T9" t="s"/>
       <c r="U9" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -2234,7 +2878,7 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G10" t="s">
         <v>46</v>
@@ -2243,34 +2887,34 @@
         <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J10" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="K10" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L10" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N10" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="O10" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="P10" t="n">
         <v>4</v>
       </c>
       <c r="Q10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S10" t="n">
         <v>4</v>
@@ -2282,12 +2926,8 @@
       <c r="V10" t="n">
         <v>0</v>
       </c>
-      <c r="W10" t="s">
-        <v>100</v>
-      </c>
-      <c r="X10" t="s">
-        <v>101</v>
-      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
       <c r="Y10" t="s">
         <v>102</v>
       </c>
@@ -2326,29 +2966,23 @@
         <v>107</v>
       </c>
       <c r="M11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="O11" t="s">
-        <v>53</v>
-      </c>
-      <c r="P11" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>2</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
       <c r="R11" t="n">
-        <v>4</v>
-      </c>
-      <c r="S11" t="n">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="S11" t="s"/>
       <c r="T11" t="s"/>
       <c r="U11" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -2356,7 +2990,7 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12">
@@ -2386,45 +3020,39 @@
       <c r="J12" t="s">
         <v>111</v>
       </c>
-      <c r="K12" t="s">
+      <c r="K12" t="s"/>
+      <c r="L12" t="s"/>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
         <v>112</v>
       </c>
-      <c r="L12" t="s">
-        <v>113</v>
-      </c>
-      <c r="M12" t="n">
-        <v>5</v>
-      </c>
-      <c r="N12" t="s">
-        <v>95</v>
-      </c>
       <c r="O12" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="P12" t="n">
         <v>4</v>
       </c>
       <c r="Q12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S12" t="n">
         <v>5</v>
       </c>
       <c r="T12" t="s"/>
       <c r="U12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
-      <c r="Y12" t="s">
-        <v>113</v>
-      </c>
+      <c r="Y12" t="s"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -2439,53 +3067,59 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
+        <v>113</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
         <v>114</v>
       </c>
-      <c r="G13" t="s">
-        <v>46</v>
-      </c>
-      <c r="H13" t="s">
-        <v>47</v>
-      </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>115</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>116</v>
       </c>
-      <c r="K13" t="s"/>
-      <c r="L13" t="s"/>
+      <c r="L13" t="s">
+        <v>117</v>
+      </c>
       <c r="M13" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="O13" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="P13" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S13" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T13" t="s"/>
       <c r="U13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
-      <c r="Y13" t="s"/>
+      <c r="Y13" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -2514,13 +3148,17 @@
       <c r="J14" t="s">
         <v>120</v>
       </c>
-      <c r="K14" t="s"/>
-      <c r="L14" t="s"/>
+      <c r="K14" t="s">
+        <v>121</v>
+      </c>
+      <c r="L14" t="s">
+        <v>122</v>
+      </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="O14" t="s">
         <v>53</v>
@@ -2546,7 +3184,9 @@
       </c>
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
-      <c r="Y14" t="s"/>
+      <c r="Y14" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -2561,7 +3201,7 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G15" t="s">
         <v>46</v>
@@ -2570,48 +3210,44 @@
         <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="J15" t="s">
-        <v>120</v>
-      </c>
-      <c r="K15" t="s">
-        <v>124</v>
-      </c>
-      <c r="L15" t="s">
         <v>125</v>
       </c>
+      <c r="K15" t="s"/>
+      <c r="L15" t="s"/>
       <c r="M15" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N15" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="O15" t="s">
         <v>53</v>
       </c>
       <c r="P15" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q15" t="s"/>
+        <v>1</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1</v>
+      </c>
       <c r="R15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S15" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T15" t="s"/>
       <c r="U15" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
-      <c r="Y15" t="s">
-        <v>125</v>
-      </c>
+      <c r="Y15" t="s"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -2626,42 +3262,46 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
+        <v>127</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>128</v>
+      </c>
+      <c r="J16" t="s">
+        <v>125</v>
+      </c>
+      <c r="K16" t="s">
+        <v>129</v>
+      </c>
+      <c r="L16" t="s">
+        <v>130</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
         <v>126</v>
-      </c>
-      <c r="G16" t="s">
-        <v>46</v>
-      </c>
-      <c r="H16" t="s">
-        <v>47</v>
-      </c>
-      <c r="I16" t="s">
-        <v>127</v>
-      </c>
-      <c r="J16" t="s">
-        <v>128</v>
-      </c>
-      <c r="K16" t="s"/>
-      <c r="L16" t="s"/>
-      <c r="M16" t="n">
-        <v>2</v>
-      </c>
-      <c r="N16" t="s">
-        <v>121</v>
       </c>
       <c r="O16" t="s">
         <v>53</v>
       </c>
       <c r="P16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R16" t="n">
         <v>3</v>
       </c>
       <c r="S16" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T16" t="s"/>
       <c r="U16" t="n">
@@ -2670,9 +3310,15 @@
       <c r="V16" t="n">
         <v>0</v>
       </c>
-      <c r="W16" t="s"/>
-      <c r="X16" t="s"/>
-      <c r="Y16" t="s"/>
+      <c r="W16" t="s">
+        <v>131</v>
+      </c>
+      <c r="X16" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -2687,7 +3333,7 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="G17" t="s">
         <v>46</v>
@@ -2696,44 +3342,40 @@
         <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="J17" t="s">
-        <v>131</v>
-      </c>
-      <c r="K17" t="s"/>
-      <c r="L17" t="s"/>
+        <v>136</v>
+      </c>
+      <c r="K17" t="s">
+        <v>137</v>
+      </c>
+      <c r="L17" t="s">
+        <v>138</v>
+      </c>
       <c r="M17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N17" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="O17" t="s">
-        <v>78</v>
-      </c>
-      <c r="P17" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>2</v>
-      </c>
-      <c r="R17" t="n">
-        <v>2</v>
-      </c>
-      <c r="S17" t="n">
-        <v>3</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
       <c r="T17" t="s"/>
-      <c r="U17" t="n">
-        <v>3</v>
-      </c>
+      <c r="U17" t="s"/>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
-      <c r="Y17" t="s"/>
+      <c r="Y17" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -2748,7 +3390,7 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="G18" t="s">
         <v>46</v>
@@ -2757,44 +3399,50 @@
         <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="J18" t="s">
-        <v>135</v>
-      </c>
-      <c r="K18" t="s"/>
-      <c r="L18" t="s"/>
+        <v>142</v>
+      </c>
+      <c r="K18" t="s">
+        <v>143</v>
+      </c>
+      <c r="L18" t="s">
+        <v>144</v>
+      </c>
       <c r="M18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N18" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="O18" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="P18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S18" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T18" t="s"/>
       <c r="U18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
-      <c r="Y18" t="s"/>
+      <c r="Y18" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2809,7 +3457,7 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="G19" t="s">
         <v>46</v>
@@ -2818,53 +3466,49 @@
         <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="J19" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="K19" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="L19" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="M19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N19" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="O19" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="P19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T19" t="s"/>
       <c r="U19" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
-      <c r="W19" t="s">
-        <v>142</v>
-      </c>
-      <c r="X19" t="s">
-        <v>143</v>
-      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
     </row>
     <row r="20">
@@ -2880,7 +3524,7 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="G20" t="s">
         <v>46</v>
@@ -2889,43 +3533,49 @@
         <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="J20" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="K20" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="L20" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="M20" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="O20" t="s">
-        <v>66</v>
-      </c>
-      <c r="P20" t="s"/>
-      <c r="Q20" t="s"/>
-      <c r="R20" t="s"/>
-      <c r="S20" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P20" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>5</v>
+      </c>
+      <c r="R20" t="n">
+        <v>3</v>
+      </c>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
       <c r="T20" t="s"/>
-      <c r="U20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
-      <c r="W20" t="s">
-        <v>151</v>
-      </c>
-      <c r="X20" t="s">
-        <v>152</v>
-      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="21">
@@ -2941,7 +3591,7 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G21" t="s">
         <v>46</v>
@@ -2950,17 +3600,13 @@
         <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="J21" t="s">
-        <v>156</v>
-      </c>
-      <c r="K21" t="s">
-        <v>157</v>
-      </c>
-      <c r="L21" t="s">
         <v>158</v>
       </c>
+      <c r="K21" t="s"/>
+      <c r="L21" t="s"/>
       <c r="M21" t="n">
         <v>4</v>
       </c>
@@ -2968,36 +3614,30 @@
         <v>159</v>
       </c>
       <c r="O21" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="P21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R21" t="n">
         <v>4</v>
       </c>
       <c r="S21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T21" t="s"/>
       <c r="U21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
-      <c r="W21" t="s">
-        <v>160</v>
-      </c>
-      <c r="X21" t="s">
-        <v>161</v>
-      </c>
-      <c r="Y21" t="s">
-        <v>162</v>
-      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -3012,28 +3652,28 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
+        <v>160</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>161</v>
+      </c>
+      <c r="J22" t="s">
+        <v>162</v>
+      </c>
+      <c r="K22" t="s">
         <v>163</v>
       </c>
-      <c r="G22" t="s">
-        <v>46</v>
-      </c>
-      <c r="H22" t="s">
-        <v>47</v>
-      </c>
-      <c r="I22" t="s">
+      <c r="L22" t="s">
         <v>164</v>
       </c>
-      <c r="J22" t="s">
-        <v>165</v>
-      </c>
-      <c r="K22" t="s">
-        <v>166</v>
-      </c>
-      <c r="L22" t="s">
-        <v>167</v>
-      </c>
       <c r="M22" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N22" t="s">
         <v>159</v>
@@ -3041,19 +3681,25 @@
       <c r="O22" t="s">
         <v>53</v>
       </c>
-      <c r="P22" t="s"/>
-      <c r="Q22" t="s"/>
+      <c r="P22" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>4</v>
+      </c>
       <c r="R22" t="s"/>
       <c r="S22" t="s"/>
       <c r="T22" t="s"/>
-      <c r="U22" t="s"/>
+      <c r="U22" t="n">
+        <v>4</v>
+      </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="23">
@@ -3069,48 +3715,46 @@
         <v>44</v>
       </c>
       <c r="F23" t="s">
+        <v>165</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>166</v>
+      </c>
+      <c r="J23" t="s">
+        <v>167</v>
+      </c>
+      <c r="K23" t="s">
+        <v>168</v>
+      </c>
+      <c r="L23" t="s">
         <v>169</v>
       </c>
-      <c r="G23" t="s">
-        <v>46</v>
-      </c>
-      <c r="H23" t="s">
-        <v>47</v>
-      </c>
-      <c r="I23" t="s">
-        <v>170</v>
-      </c>
-      <c r="J23" t="s">
-        <v>171</v>
-      </c>
-      <c r="K23" t="s"/>
-      <c r="L23" t="s">
-        <v>172</v>
-      </c>
       <c r="M23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N23" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="O23" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="P23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q23" t="n">
-        <v>2</v>
-      </c>
-      <c r="R23" t="n">
-        <v>3</v>
-      </c>
-      <c r="S23" t="n">
-        <v>3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
       <c r="T23" t="s"/>
       <c r="U23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -3118,7 +3762,7 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="24">
@@ -3134,7 +3778,7 @@
         <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G24" t="s">
         <v>46</v>
@@ -3143,48 +3787,44 @@
         <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="J24" t="s">
-        <v>177</v>
-      </c>
-      <c r="K24" t="s">
-        <v>178</v>
-      </c>
-      <c r="L24" t="s">
-        <v>179</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="K24" t="s"/>
+      <c r="L24" t="s"/>
       <c r="M24" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="O24" t="s">
-        <v>66</v>
-      </c>
-      <c r="P24" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P24" t="n">
+        <v>5</v>
+      </c>
       <c r="Q24" t="n">
-        <v>4</v>
-      </c>
-      <c r="R24" t="s"/>
-      <c r="S24" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="R24" t="n">
+        <v>5</v>
+      </c>
+      <c r="S24" t="n">
+        <v>5</v>
+      </c>
       <c r="T24" t="s"/>
       <c r="U24" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
-      <c r="W24" t="s">
-        <v>181</v>
-      </c>
-      <c r="X24" t="s">
-        <v>182</v>
-      </c>
-      <c r="Y24" t="s">
-        <v>183</v>
-      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -3199,7 +3839,7 @@
         <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="G25" t="s">
         <v>46</v>
@@ -3208,51 +3848,47 @@
         <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="J25" t="s">
-        <v>186</v>
-      </c>
-      <c r="K25" t="s"/>
+        <v>172</v>
+      </c>
+      <c r="K25" t="s">
+        <v>176</v>
+      </c>
       <c r="L25" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="M25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N25" t="s">
-        <v>180</v>
+        <v>159</v>
       </c>
       <c r="O25" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="P25" t="n">
         <v>5</v>
       </c>
-      <c r="Q25" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q25" t="s"/>
       <c r="R25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S25" t="n">
         <v>5</v>
       </c>
       <c r="T25" t="s"/>
       <c r="U25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
-      <c r="W25" t="s">
-        <v>187</v>
-      </c>
-      <c r="X25" t="s">
-        <v>188</v>
-      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="26">
@@ -3268,7 +3904,7 @@
         <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="G26" t="s">
         <v>46</v>
@@ -3277,50 +3913,44 @@
         <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="J26" t="s">
-        <v>191</v>
-      </c>
-      <c r="K26" t="s">
-        <v>192</v>
-      </c>
-      <c r="L26" t="s">
-        <v>193</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="K26" t="s"/>
+      <c r="L26" t="s"/>
       <c r="M26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N26" t="s">
-        <v>194</v>
+        <v>173</v>
       </c>
       <c r="O26" t="s">
         <v>53</v>
       </c>
       <c r="P26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R26" t="n">
         <v>3</v>
       </c>
       <c r="S26" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T26" t="s"/>
       <c r="U26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
-      <c r="Y26" t="s">
-        <v>193</v>
-      </c>
+      <c r="Y26" t="s"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -3335,7 +3965,7 @@
         <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="G27" t="s">
         <v>46</v>
@@ -3344,53 +3974,49 @@
         <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="J27" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="K27" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="L27" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="M27" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N27" t="s">
-        <v>194</v>
+        <v>173</v>
       </c>
       <c r="O27" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="P27" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q27" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R27" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S27" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T27" t="s"/>
       <c r="U27" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
-      <c r="W27" t="s">
-        <v>200</v>
-      </c>
-      <c r="X27" t="s">
-        <v>201</v>
-      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
     </row>
     <row r="28">
@@ -3406,7 +4032,7 @@
         <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
       <c r="G28" t="s">
         <v>46</v>
@@ -3415,29 +4041,31 @@
         <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
       <c r="J28" t="s">
-        <v>205</v>
-      </c>
-      <c r="K28" t="s"/>
+        <v>188</v>
+      </c>
+      <c r="K28" t="s">
+        <v>189</v>
+      </c>
       <c r="L28" t="s">
-        <v>172</v>
+        <v>190</v>
       </c>
       <c r="M28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N28" t="s">
-        <v>206</v>
+        <v>173</v>
       </c>
       <c r="O28" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="P28" t="n">
         <v>5</v>
       </c>
       <c r="Q28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R28" t="n">
         <v>5</v>
@@ -3447,19 +4075,15 @@
       </c>
       <c r="T28" t="s"/>
       <c r="U28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
-      <c r="W28" t="s">
-        <v>207</v>
-      </c>
-      <c r="X28" t="s">
-        <v>208</v>
-      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
     </row>
     <row r="29">
@@ -3475,7 +4099,7 @@
         <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>209</v>
+        <v>191</v>
       </c>
       <c r="G29" t="s">
         <v>46</v>
@@ -3484,37 +4108,37 @@
         <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>210</v>
+        <v>192</v>
       </c>
       <c r="J29" t="s">
-        <v>211</v>
+        <v>193</v>
       </c>
       <c r="K29" t="s"/>
       <c r="L29" t="s"/>
       <c r="M29" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N29" t="s">
         <v>194</v>
       </c>
       <c r="O29" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="P29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q29" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R29" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="S29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T29" t="s"/>
       <c r="U29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -3536,7 +4160,7 @@
         <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
       <c r="G30" t="s">
         <v>46</v>
@@ -3545,37 +4169,33 @@
         <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="J30" t="s">
-        <v>214</v>
-      </c>
-      <c r="K30" t="s">
-        <v>215</v>
-      </c>
-      <c r="L30" t="s">
-        <v>216</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="K30" t="s"/>
+      <c r="L30" t="s"/>
       <c r="M30" t="n">
         <v>2</v>
       </c>
       <c r="N30" t="s">
-        <v>217</v>
+        <v>194</v>
       </c>
       <c r="O30" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q30" t="n">
+        <v>3</v>
+      </c>
+      <c r="R30" t="n">
+        <v>4</v>
+      </c>
+      <c r="S30" t="n">
         <v>2</v>
-      </c>
-      <c r="R30" t="n">
-        <v>5</v>
-      </c>
-      <c r="S30" t="n">
-        <v>5</v>
       </c>
       <c r="T30" t="s"/>
       <c r="U30" t="n">
@@ -3586,9 +4206,7 @@
       </c>
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
-      <c r="Y30" t="s">
-        <v>216</v>
-      </c>
+      <c r="Y30" t="s"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -3603,7 +4221,7 @@
         <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
       <c r="G31" t="s">
         <v>46</v>
@@ -3612,45 +4230,53 @@
         <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>219</v>
+        <v>199</v>
       </c>
       <c r="J31" t="s">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="K31" t="s">
-        <v>221</v>
+        <v>201</v>
       </c>
       <c r="L31" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
       <c r="M31" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="O31" t="s">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="P31" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q31" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>5</v>
+      </c>
       <c r="R31" t="n">
-        <v>3</v>
-      </c>
-      <c r="S31" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="S31" t="n">
+        <v>5</v>
+      </c>
       <c r="T31" t="s"/>
       <c r="U31" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
-      <c r="W31" t="s"/>
-      <c r="X31" t="s"/>
+      <c r="W31" t="s">
+        <v>204</v>
+      </c>
+      <c r="X31" t="s">
+        <v>205</v>
+      </c>
       <c r="Y31" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
     </row>
     <row r="32">
@@ -3666,7 +4292,7 @@
         <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="G32" t="s">
         <v>46</v>
@@ -3675,47 +4301,47 @@
         <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="J32" t="s">
-        <v>225</v>
-      </c>
-      <c r="K32" t="s">
-        <v>226</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="K32" t="s"/>
       <c r="L32" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
       <c r="M32" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N32" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="O32" t="s">
-        <v>78</v>
-      </c>
-      <c r="P32" t="s"/>
-      <c r="Q32" t="s"/>
+        <v>79</v>
+      </c>
+      <c r="P32" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>3</v>
+      </c>
       <c r="R32" t="n">
-        <v>5</v>
-      </c>
-      <c r="S32" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="S32" t="n">
+        <v>3</v>
+      </c>
       <c r="T32" t="s"/>
       <c r="U32" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
-      <c r="W32" t="s">
-        <v>228</v>
-      </c>
-      <c r="X32" t="s">
-        <v>229</v>
-      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>230</v>
+        <v>212</v>
       </c>
     </row>
     <row r="33">
@@ -3731,7 +4357,7 @@
         <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>231</v>
+        <v>213</v>
       </c>
       <c r="G33" t="s">
         <v>46</v>
@@ -3740,34 +4366,34 @@
         <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
       <c r="J33" t="s">
-        <v>225</v>
-      </c>
-      <c r="K33" t="s">
-        <v>233</v>
-      </c>
-      <c r="L33" t="s">
-        <v>234</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="K33" t="s"/>
+      <c r="L33" t="s"/>
       <c r="M33" t="n">
         <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="O33" t="s">
-        <v>53</v>
-      </c>
-      <c r="P33" t="s"/>
+        <v>66</v>
+      </c>
+      <c r="P33" t="n">
+        <v>5</v>
+      </c>
       <c r="Q33" t="n">
         <v>5</v>
       </c>
       <c r="R33" t="n">
         <v>5</v>
       </c>
-      <c r="S33" t="s"/>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
       <c r="T33" t="s"/>
       <c r="U33" t="n">
         <v>5</v>
@@ -3775,15 +4401,9 @@
       <c r="V33" t="n">
         <v>0</v>
       </c>
-      <c r="W33" t="s">
-        <v>228</v>
-      </c>
-      <c r="X33" t="s">
-        <v>229</v>
-      </c>
-      <c r="Y33" t="s">
-        <v>235</v>
-      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -3798,7 +4418,7 @@
         <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>236</v>
+        <v>217</v>
       </c>
       <c r="G34" t="s">
         <v>46</v>
@@ -3807,53 +4427,43 @@
         <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>237</v>
+        <v>218</v>
       </c>
       <c r="J34" t="s">
-        <v>238</v>
+        <v>219</v>
       </c>
       <c r="K34" t="s">
-        <v>239</v>
+        <v>220</v>
       </c>
       <c r="L34" t="s">
-        <v>240</v>
+        <v>221</v>
       </c>
       <c r="M34" t="n">
         <v>2</v>
       </c>
       <c r="N34" t="s">
-        <v>241</v>
+        <v>216</v>
       </c>
       <c r="O34" t="s">
-        <v>78</v>
-      </c>
-      <c r="P34" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>1</v>
-      </c>
-      <c r="R34" t="n">
-        <v>2</v>
-      </c>
-      <c r="S34" t="n">
-        <v>3</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
       <c r="T34" t="s"/>
-      <c r="U34" t="n">
-        <v>1</v>
-      </c>
+      <c r="U34" t="s"/>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>242</v>
+        <v>222</v>
       </c>
       <c r="X34" t="s">
-        <v>243</v>
+        <v>223</v>
       </c>
       <c r="Y34" t="s">
-        <v>244</v>
+        <v>224</v>
       </c>
     </row>
     <row r="35">
@@ -3869,7 +4479,7 @@
         <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>245</v>
+        <v>225</v>
       </c>
       <c r="G35" t="s">
         <v>46</v>
@@ -3878,32 +4488,34 @@
         <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>246</v>
+        <v>226</v>
       </c>
       <c r="J35" t="s">
-        <v>247</v>
-      </c>
-      <c r="K35" t="s"/>
+        <v>227</v>
+      </c>
+      <c r="K35" t="s">
+        <v>228</v>
+      </c>
       <c r="L35" t="s">
-        <v>172</v>
+        <v>229</v>
       </c>
       <c r="M35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N35" t="s">
-        <v>248</v>
+        <v>230</v>
       </c>
       <c r="O35" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="P35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q35" t="n">
         <v>5</v>
       </c>
       <c r="R35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S35" t="n">
         <v>5</v>
@@ -3916,13 +4528,13 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>249</v>
+        <v>231</v>
       </c>
       <c r="X35" t="s">
-        <v>250</v>
+        <v>232</v>
       </c>
       <c r="Y35" t="s">
-        <v>174</v>
+        <v>233</v>
       </c>
     </row>
     <row r="36">
@@ -3938,7 +4550,7 @@
         <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
       <c r="G36" t="s">
         <v>46</v>
@@ -3947,49 +4559,39 @@
         <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="J36" t="s">
-        <v>253</v>
+        <v>236</v>
       </c>
       <c r="K36" t="s">
-        <v>254</v>
+        <v>237</v>
       </c>
       <c r="L36" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="M36" t="n">
         <v>2</v>
       </c>
       <c r="N36" t="s">
-        <v>248</v>
+        <v>230</v>
       </c>
       <c r="O36" t="s">
-        <v>66</v>
-      </c>
-      <c r="P36" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>4</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
       <c r="R36" t="s"/>
       <c r="S36" t="s"/>
       <c r="T36" t="s"/>
-      <c r="U36" t="n">
-        <v>2</v>
-      </c>
+      <c r="U36" t="s"/>
       <c r="V36" t="n">
         <v>0</v>
       </c>
-      <c r="W36" t="s">
-        <v>256</v>
-      </c>
-      <c r="X36" t="s">
-        <v>257</v>
-      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>258</v>
+        <v>239</v>
       </c>
     </row>
     <row r="37">
@@ -4005,7 +4607,7 @@
         <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>259</v>
+        <v>240</v>
       </c>
       <c r="G37" t="s">
         <v>46</v>
@@ -4014,51 +4616,43 @@
         <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>260</v>
+        <v>241</v>
       </c>
       <c r="J37" t="s">
-        <v>261</v>
-      </c>
-      <c r="K37" t="s"/>
+        <v>242</v>
+      </c>
+      <c r="K37" t="s">
+        <v>243</v>
+      </c>
       <c r="L37" t="s">
-        <v>172</v>
+        <v>244</v>
       </c>
       <c r="M37" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>262</v>
+        <v>230</v>
       </c>
       <c r="O37" t="s">
-        <v>53</v>
-      </c>
-      <c r="P37" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>2</v>
-      </c>
-      <c r="R37" t="n">
-        <v>5</v>
-      </c>
-      <c r="S37" t="n">
-        <v>2</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
       <c r="T37" t="s"/>
-      <c r="U37" t="n">
-        <v>2</v>
-      </c>
+      <c r="U37" t="s"/>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="X37" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="Y37" t="s">
-        <v>174</v>
+        <v>247</v>
       </c>
     </row>
     <row r="38">
@@ -4074,7 +4668,7 @@
         <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="G38" t="s">
         <v>46</v>
@@ -4083,32 +4677,38 @@
         <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="J38" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="K38" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="L38" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="M38" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="O38" t="s">
-        <v>78</v>
-      </c>
-      <c r="P38" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P38" t="n">
+        <v>5</v>
+      </c>
       <c r="Q38" t="n">
-        <v>4</v>
-      </c>
-      <c r="R38" t="s"/>
-      <c r="S38" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="R38" t="n">
+        <v>4</v>
+      </c>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
       <c r="T38" t="s"/>
       <c r="U38" t="n">
         <v>5</v>
@@ -4117,13 +4717,13 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>268</v>
+        <v>254</v>
       </c>
       <c r="X38" t="s">
-        <v>269</v>
+        <v>255</v>
       </c>
       <c r="Y38" t="s">
-        <v>270</v>
+        <v>256</v>
       </c>
     </row>
     <row r="39">
@@ -4139,7 +4739,7 @@
         <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>271</v>
+        <v>257</v>
       </c>
       <c r="G39" t="s">
         <v>46</v>
@@ -4148,51 +4748,47 @@
         <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>272</v>
+        <v>258</v>
       </c>
       <c r="J39" t="s">
-        <v>273</v>
+        <v>259</v>
       </c>
       <c r="K39" t="s"/>
       <c r="L39" t="s">
-        <v>172</v>
+        <v>210</v>
       </c>
       <c r="M39" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N39" t="s">
-        <v>274</v>
+        <v>260</v>
       </c>
       <c r="O39" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="P39" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q39" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R39" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T39" t="s"/>
       <c r="U39" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
-      <c r="W39" t="s">
-        <v>268</v>
-      </c>
-      <c r="X39" t="s">
-        <v>269</v>
-      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>174</v>
+        <v>212</v>
       </c>
     </row>
     <row r="40">
@@ -4208,7 +4804,7 @@
         <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>275</v>
+        <v>261</v>
       </c>
       <c r="G40" t="s">
         <v>46</v>
@@ -4217,51 +4813,47 @@
         <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>276</v>
+        <v>262</v>
       </c>
       <c r="J40" t="s">
-        <v>277</v>
-      </c>
-      <c r="K40" t="s"/>
+        <v>263</v>
+      </c>
+      <c r="K40" t="s">
+        <v>264</v>
+      </c>
       <c r="L40" t="s">
-        <v>172</v>
+        <v>265</v>
       </c>
       <c r="M40" t="n">
         <v>2</v>
       </c>
       <c r="N40" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="O40" t="s">
-        <v>53</v>
-      </c>
-      <c r="P40" t="n">
-        <v>2</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="P40" t="s"/>
       <c r="Q40" t="n">
-        <v>3</v>
-      </c>
-      <c r="R40" t="n">
-        <v>3</v>
-      </c>
-      <c r="S40" t="n">
-        <v>2</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
       <c r="T40" t="s"/>
       <c r="U40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="X40" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="Y40" t="s">
-        <v>174</v>
+        <v>269</v>
       </c>
     </row>
     <row r="41">
@@ -4277,7 +4869,7 @@
         <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="G41" t="s">
         <v>46</v>
@@ -4286,43 +4878,51 @@
         <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="J41" t="s">
-        <v>283</v>
-      </c>
-      <c r="K41" t="s">
-        <v>284</v>
-      </c>
+        <v>272</v>
+      </c>
+      <c r="K41" t="s"/>
       <c r="L41" t="s">
-        <v>285</v>
+        <v>210</v>
       </c>
       <c r="M41" t="n">
         <v>5</v>
       </c>
       <c r="N41" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="O41" t="s">
-        <v>53</v>
-      </c>
-      <c r="P41" t="s"/>
-      <c r="Q41" t="s"/>
-      <c r="R41" t="s"/>
-      <c r="S41" t="s"/>
+        <v>79</v>
+      </c>
+      <c r="P41" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>5</v>
+      </c>
+      <c r="R41" t="n">
+        <v>5</v>
+      </c>
+      <c r="S41" t="n">
+        <v>5</v>
+      </c>
       <c r="T41" t="s"/>
-      <c r="U41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="X41" t="s">
-        <v>287</v>
+        <v>274</v>
       </c>
       <c r="Y41" t="s">
-        <v>288</v>
+        <v>212</v>
       </c>
     </row>
     <row r="42">
@@ -4338,7 +4938,7 @@
         <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="G42" t="s">
         <v>46</v>
@@ -4347,53 +4947,53 @@
         <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="J42" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="K42" t="s">
-        <v>292</v>
+        <v>278</v>
       </c>
       <c r="L42" t="s">
-        <v>293</v>
+        <v>279</v>
       </c>
       <c r="M42" t="n">
         <v>5</v>
       </c>
       <c r="N42" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="O42" t="s">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="P42" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q42" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R42" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S42" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T42" t="s"/>
       <c r="U42" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="X42" t="s">
-        <v>287</v>
+        <v>274</v>
       </c>
       <c r="Y42" t="s">
-        <v>295</v>
+        <v>281</v>
       </c>
     </row>
     <row r="43">
@@ -4409,7 +5009,7 @@
         <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>296</v>
+        <v>282</v>
       </c>
       <c r="G43" t="s">
         <v>46</v>
@@ -4418,39 +5018,53 @@
         <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>297</v>
+        <v>283</v>
       </c>
       <c r="J43" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="K43" t="s">
-        <v>299</v>
+        <v>285</v>
       </c>
       <c r="L43" t="s">
-        <v>300</v>
+        <v>286</v>
       </c>
       <c r="M43" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N43" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="O43" t="s">
-        <v>59</v>
-      </c>
-      <c r="P43" t="s"/>
-      <c r="Q43" t="s"/>
-      <c r="R43" t="s"/>
-      <c r="S43" t="s"/>
+        <v>72</v>
+      </c>
+      <c r="P43" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>4</v>
+      </c>
+      <c r="R43" t="n">
+        <v>4</v>
+      </c>
+      <c r="S43" t="n">
+        <v>4</v>
+      </c>
       <c r="T43" t="s"/>
-      <c r="U43" t="s"/>
+      <c r="U43" t="n">
+        <v>4</v>
+      </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
-      <c r="W43" t="s"/>
-      <c r="X43" t="s"/>
+      <c r="W43" t="s">
+        <v>273</v>
+      </c>
+      <c r="X43" t="s">
+        <v>274</v>
+      </c>
       <c r="Y43" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
     </row>
     <row r="44">
@@ -4466,7 +5080,7 @@
         <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="G44" t="s">
         <v>46</v>
@@ -4475,37 +5089,37 @@
         <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="J44" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="K44" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="L44" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="M44" t="n">
         <v>4</v>
       </c>
       <c r="N44" t="s">
-        <v>306</v>
+        <v>280</v>
       </c>
       <c r="O44" t="s">
         <v>53</v>
       </c>
       <c r="P44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q44" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R44" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S44" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T44" t="s"/>
       <c r="U44" t="n">
@@ -4517,7 +5131,7 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
     </row>
     <row r="45">
@@ -4533,7 +5147,7 @@
         <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>307</v>
+        <v>294</v>
       </c>
       <c r="G45" t="s">
         <v>46</v>
@@ -4542,31 +5156,31 @@
         <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
       <c r="J45" t="s">
-        <v>309</v>
+        <v>296</v>
       </c>
       <c r="K45" t="s">
-        <v>310</v>
+        <v>297</v>
       </c>
       <c r="L45" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
       <c r="M45" t="n">
         <v>5</v>
       </c>
       <c r="N45" t="s">
-        <v>312</v>
+        <v>280</v>
       </c>
       <c r="O45" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="P45" t="n">
         <v>5</v>
       </c>
       <c r="Q45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R45" t="n">
         <v>5</v>
@@ -4576,15 +5190,19 @@
       </c>
       <c r="T45" t="s"/>
       <c r="U45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
-      <c r="W45" t="s"/>
-      <c r="X45" t="s"/>
+      <c r="W45" t="s">
+        <v>299</v>
+      </c>
+      <c r="X45" t="s">
+        <v>300</v>
+      </c>
       <c r="Y45" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
     </row>
     <row r="46">
@@ -4600,7 +5218,7 @@
         <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="G46" t="s">
         <v>46</v>
@@ -4609,21 +5227,23 @@
         <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="J46" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="K46" t="s"/>
-      <c r="L46" t="s"/>
+      <c r="L46" t="s">
+        <v>210</v>
+      </c>
       <c r="M46" t="n">
         <v>5</v>
       </c>
       <c r="N46" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="O46" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P46" t="n">
         <v>5</v>
@@ -4644,9 +5264,15 @@
       <c r="V46" t="n">
         <v>0</v>
       </c>
-      <c r="W46" t="s"/>
-      <c r="X46" t="s"/>
-      <c r="Y46" t="s"/>
+      <c r="W46" t="s">
+        <v>306</v>
+      </c>
+      <c r="X46" t="s">
+        <v>307</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -4661,7 +5287,7 @@
         <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="G47" t="s">
         <v>46</v>
@@ -4670,39 +5296,51 @@
         <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="J47" t="s">
-        <v>319</v>
-      </c>
-      <c r="K47" t="s">
-        <v>320</v>
-      </c>
+        <v>310</v>
+      </c>
+      <c r="K47" t="s"/>
       <c r="L47" t="s">
-        <v>321</v>
+        <v>210</v>
       </c>
       <c r="M47" t="n">
         <v>4</v>
       </c>
       <c r="N47" t="s">
-        <v>316</v>
+        <v>280</v>
       </c>
       <c r="O47" t="s">
-        <v>78</v>
-      </c>
-      <c r="P47" t="s"/>
-      <c r="Q47" t="s"/>
-      <c r="R47" t="s"/>
-      <c r="S47" t="s"/>
+        <v>66</v>
+      </c>
+      <c r="P47" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>5</v>
+      </c>
+      <c r="R47" t="n">
+        <v>4</v>
+      </c>
+      <c r="S47" t="n">
+        <v>5</v>
+      </c>
       <c r="T47" t="s"/>
-      <c r="U47" t="s"/>
+      <c r="U47" t="n">
+        <v>4</v>
+      </c>
       <c r="V47" t="n">
         <v>0</v>
       </c>
-      <c r="W47" t="s"/>
-      <c r="X47" t="s"/>
+      <c r="W47" t="s">
+        <v>311</v>
+      </c>
+      <c r="X47" t="s">
+        <v>312</v>
+      </c>
       <c r="Y47" t="s">
-        <v>322</v>
+        <v>212</v>
       </c>
     </row>
     <row r="48">
@@ -4718,7 +5356,7 @@
         <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="G48" t="s">
         <v>46</v>
@@ -4727,49 +5365,39 @@
         <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="J48" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="K48" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="L48" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="M48" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N48" t="s">
-        <v>328</v>
+        <v>280</v>
       </c>
       <c r="O48" t="s">
-        <v>78</v>
-      </c>
-      <c r="P48" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q48" t="n">
-        <v>4</v>
-      </c>
-      <c r="R48" t="n">
-        <v>4</v>
-      </c>
-      <c r="S48" t="n">
-        <v>4</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
       <c r="T48" t="s"/>
-      <c r="U48" t="n">
-        <v>5</v>
-      </c>
+      <c r="U48" t="s"/>
       <c r="V48" t="n">
         <v>0</v>
       </c>
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
     </row>
     <row r="49">
@@ -4785,7 +5413,7 @@
         <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="G49" t="s">
         <v>46</v>
@@ -4794,50 +5422,44 @@
         <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="J49" t="s">
-        <v>331</v>
-      </c>
-      <c r="K49" t="s">
-        <v>332</v>
-      </c>
-      <c r="L49" t="s">
-        <v>333</v>
-      </c>
+        <v>320</v>
+      </c>
+      <c r="K49" t="s"/>
+      <c r="L49" t="s"/>
       <c r="M49" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N49" t="s">
-        <v>334</v>
+        <v>280</v>
       </c>
       <c r="O49" t="s">
         <v>53</v>
       </c>
       <c r="P49" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q49" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R49" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S49" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T49" t="s"/>
       <c r="U49" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V49" t="n">
         <v>0</v>
       </c>
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
-      <c r="Y49" t="s">
-        <v>333</v>
-      </c>
+      <c r="Y49" t="s"/>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -4852,7 +5474,7 @@
         <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="G50" t="s">
         <v>46</v>
@@ -4861,22 +5483,22 @@
         <v>47</v>
       </c>
       <c r="I50" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="J50" t="s">
-        <v>337</v>
+        <v>323</v>
       </c>
       <c r="K50" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
       <c r="L50" t="s">
-        <v>339</v>
+        <v>325</v>
       </c>
       <c r="M50" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N50" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="O50" t="s">
         <v>66</v>
@@ -4884,14 +5506,18 @@
       <c r="P50" t="n">
         <v>4</v>
       </c>
-      <c r="Q50" t="s"/>
-      <c r="R50" t="s"/>
+      <c r="Q50" t="n">
+        <v>2</v>
+      </c>
+      <c r="R50" t="n">
+        <v>5</v>
+      </c>
       <c r="S50" t="n">
         <v>5</v>
       </c>
       <c r="T50" t="s"/>
       <c r="U50" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V50" t="n">
         <v>0</v>
@@ -4899,7 +5525,7 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>339</v>
+        <v>325</v>
       </c>
     </row>
     <row r="51">
@@ -4915,7 +5541,7 @@
         <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>341</v>
+        <v>327</v>
       </c>
       <c r="G51" t="s">
         <v>46</v>
@@ -4924,44 +5550,46 @@
         <v>47</v>
       </c>
       <c r="I51" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="J51" t="s">
-        <v>343</v>
-      </c>
-      <c r="K51" t="s"/>
-      <c r="L51" t="s"/>
+        <v>329</v>
+      </c>
+      <c r="K51" t="s">
+        <v>330</v>
+      </c>
+      <c r="L51" t="s">
+        <v>331</v>
+      </c>
       <c r="M51" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N51" t="s">
-        <v>344</v>
+        <v>326</v>
       </c>
       <c r="O51" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="P51" t="n">
         <v>3</v>
       </c>
-      <c r="Q51" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q51" t="s"/>
       <c r="R51" t="n">
         <v>3</v>
       </c>
-      <c r="S51" t="n">
-        <v>2</v>
-      </c>
+      <c r="S51" t="s"/>
       <c r="T51" t="s"/>
       <c r="U51" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V51" t="n">
         <v>0</v>
       </c>
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
-      <c r="Y51" t="s"/>
+      <c r="Y51" t="s">
+        <v>331</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -4976,7 +5604,7 @@
         <v>44</v>
       </c>
       <c r="F52" t="s">
-        <v>345</v>
+        <v>332</v>
       </c>
       <c r="G52" t="s">
         <v>46</v>
@@ -4985,33 +5613,31 @@
         <v>47</v>
       </c>
       <c r="I52" t="s">
-        <v>346</v>
+        <v>333</v>
       </c>
       <c r="J52" t="s">
-        <v>347</v>
-      </c>
-      <c r="K52" t="s"/>
-      <c r="L52" t="s"/>
+        <v>334</v>
+      </c>
+      <c r="K52" t="s">
+        <v>335</v>
+      </c>
+      <c r="L52" t="s">
+        <v>336</v>
+      </c>
       <c r="M52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N52" t="s">
-        <v>344</v>
+        <v>326</v>
       </c>
       <c r="O52" t="s">
-        <v>53</v>
-      </c>
-      <c r="P52" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q52" t="n">
-        <v>5</v>
-      </c>
-      <c r="R52" t="n">
-        <v>5</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="s"/>
       <c r="S52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T52" t="s"/>
       <c r="U52" t="n">
@@ -5022,7 +5648,9 @@
       </c>
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
-      <c r="Y52" t="s"/>
+      <c r="Y52" t="s">
+        <v>337</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -5037,7 +5665,7 @@
         <v>44</v>
       </c>
       <c r="F53" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="G53" t="s">
         <v>46</v>
@@ -5046,44 +5674,52 @@
         <v>47</v>
       </c>
       <c r="I53" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="J53" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="K53" t="s"/>
-      <c r="L53" t="s"/>
+      <c r="L53" t="s">
+        <v>210</v>
+      </c>
       <c r="M53" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N53" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="O53" t="s">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="P53" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q53" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R53" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S53" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T53" t="s"/>
       <c r="U53" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V53" t="n">
         <v>0</v>
       </c>
-      <c r="W53" t="s"/>
-      <c r="X53" t="s"/>
-      <c r="Y53" t="s"/>
+      <c r="W53" t="s">
+        <v>342</v>
+      </c>
+      <c r="X53" t="s">
+        <v>343</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -5098,7 +5734,7 @@
         <v>44</v>
       </c>
       <c r="F54" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="G54" t="s">
         <v>46</v>
@@ -5107,34 +5743,32 @@
         <v>47</v>
       </c>
       <c r="I54" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="J54" t="s">
-        <v>354</v>
-      </c>
-      <c r="K54" t="s"/>
-      <c r="L54" t="s"/>
+        <v>346</v>
+      </c>
+      <c r="K54" t="s">
+        <v>347</v>
+      </c>
+      <c r="L54" t="s">
+        <v>348</v>
+      </c>
       <c r="M54" t="n">
         <v>5</v>
       </c>
       <c r="N54" t="s">
-        <v>351</v>
+        <v>326</v>
       </c>
       <c r="O54" t="s">
         <v>66</v>
       </c>
-      <c r="P54" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q54" t="n">
-        <v>5</v>
-      </c>
+      <c r="P54" t="s"/>
+      <c r="Q54" t="s"/>
       <c r="R54" t="n">
         <v>5</v>
       </c>
-      <c r="S54" t="n">
-        <v>5</v>
-      </c>
+      <c r="S54" t="s"/>
       <c r="T54" t="s"/>
       <c r="U54" t="n">
         <v>5</v>
@@ -5142,9 +5776,15 @@
       <c r="V54" t="n">
         <v>0</v>
       </c>
-      <c r="W54" t="s"/>
-      <c r="X54" t="s"/>
-      <c r="Y54" t="s"/>
+      <c r="W54" t="s">
+        <v>349</v>
+      </c>
+      <c r="X54" t="s">
+        <v>350</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>351</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -5159,48 +5799,58 @@
         <v>44</v>
       </c>
       <c r="F55" t="s">
+        <v>352</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>353</v>
+      </c>
+      <c r="J55" t="s">
+        <v>346</v>
+      </c>
+      <c r="K55" t="s">
+        <v>354</v>
+      </c>
+      <c r="L55" t="s">
         <v>355</v>
       </c>
-      <c r="G55" t="s">
-        <v>46</v>
-      </c>
-      <c r="H55" t="s">
-        <v>47</v>
-      </c>
-      <c r="I55" t="s">
-        <v>356</v>
-      </c>
-      <c r="J55" t="s">
-        <v>357</v>
-      </c>
-      <c r="K55" t="s">
-        <v>358</v>
-      </c>
-      <c r="L55" t="s">
-        <v>359</v>
-      </c>
       <c r="M55" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N55" t="s">
-        <v>360</v>
+        <v>326</v>
       </c>
       <c r="O55" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="P55" t="s"/>
-      <c r="Q55" t="s"/>
-      <c r="R55" t="s"/>
+      <c r="Q55" t="n">
+        <v>5</v>
+      </c>
+      <c r="R55" t="n">
+        <v>5</v>
+      </c>
       <c r="S55" t="s"/>
       <c r="T55" t="s"/>
-      <c r="U55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
       <c r="V55" t="n">
         <v>0</v>
       </c>
-      <c r="W55" t="s"/>
-      <c r="X55" t="s"/>
+      <c r="W55" t="s">
+        <v>349</v>
+      </c>
+      <c r="X55" t="s">
+        <v>350</v>
+      </c>
       <c r="Y55" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="56">
@@ -5216,53 +5866,63 @@
         <v>44</v>
       </c>
       <c r="F56" t="s">
+        <v>357</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>358</v>
+      </c>
+      <c r="J56" t="s">
+        <v>359</v>
+      </c>
+      <c r="K56" t="s">
+        <v>360</v>
+      </c>
+      <c r="L56" t="s">
         <v>361</v>
       </c>
-      <c r="G56" t="s">
-        <v>46</v>
-      </c>
-      <c r="H56" t="s">
-        <v>47</v>
-      </c>
-      <c r="I56" t="s">
-        <v>362</v>
-      </c>
-      <c r="J56" t="s">
-        <v>363</v>
-      </c>
-      <c r="K56" t="s"/>
-      <c r="L56" t="s"/>
       <c r="M56" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N56" t="s">
-        <v>364</v>
+        <v>341</v>
       </c>
       <c r="O56" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="P56" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q56" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R56" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="S56" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T56" t="s"/>
       <c r="U56" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V56" t="n">
         <v>0</v>
       </c>
-      <c r="W56" t="s"/>
-      <c r="X56" t="s"/>
-      <c r="Y56" t="s"/>
+      <c r="W56" t="s">
+        <v>362</v>
+      </c>
+      <c r="X56" t="s">
+        <v>363</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>364</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -5294,13 +5954,13 @@
       <c r="K57" t="s"/>
       <c r="L57" t="s"/>
       <c r="M57" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N57" t="s">
         <v>368</v>
       </c>
       <c r="O57" t="s">
-        <v>66</v>
+        <v>108</v>
       </c>
       <c r="P57" t="n">
         <v>5</v>
@@ -5312,7 +5972,7 @@
         <v>5</v>
       </c>
       <c r="S57" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T57" t="s"/>
       <c r="U57" t="n">
@@ -5352,39 +6012,39 @@
       <c r="J58" t="s">
         <v>371</v>
       </c>
-      <c r="K58" t="s"/>
-      <c r="L58" t="s"/>
+      <c r="K58" t="s">
+        <v>372</v>
+      </c>
+      <c r="L58" t="s">
+        <v>373</v>
+      </c>
       <c r="M58" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N58" t="s">
-        <v>364</v>
+        <v>374</v>
       </c>
       <c r="O58" t="s">
-        <v>78</v>
-      </c>
-      <c r="P58" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q58" t="n">
-        <v>4</v>
-      </c>
-      <c r="R58" t="n">
-        <v>1</v>
-      </c>
-      <c r="S58" t="n">
-        <v>2</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="P58" t="s"/>
+      <c r="Q58" t="s"/>
+      <c r="R58" t="s"/>
+      <c r="S58" t="s"/>
       <c r="T58" t="s"/>
-      <c r="U58" t="n">
-        <v>2</v>
-      </c>
+      <c r="U58" t="s"/>
       <c r="V58" t="n">
         <v>0</v>
       </c>
-      <c r="W58" t="s"/>
-      <c r="X58" t="s"/>
-      <c r="Y58" t="s"/>
+      <c r="W58" t="s">
+        <v>375</v>
+      </c>
+      <c r="X58" t="s">
+        <v>376</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>377</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -5399,7 +6059,7 @@
         <v>44</v>
       </c>
       <c r="F59" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="G59" t="s">
         <v>46</v>
@@ -5408,49 +6068,51 @@
         <v>47</v>
       </c>
       <c r="I59" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="J59" t="s">
-        <v>374</v>
-      </c>
-      <c r="K59" t="s">
-        <v>375</v>
-      </c>
+        <v>380</v>
+      </c>
+      <c r="K59" t="s"/>
       <c r="L59" t="s">
-        <v>376</v>
+        <v>210</v>
       </c>
       <c r="M59" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N59" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="O59" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="P59" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q59" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R59" t="n">
         <v>5</v>
       </c>
       <c r="S59" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T59" t="s"/>
       <c r="U59" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V59" t="n">
         <v>0</v>
       </c>
-      <c r="W59" t="s"/>
-      <c r="X59" t="s"/>
+      <c r="W59" t="s">
+        <v>382</v>
+      </c>
+      <c r="X59" t="s">
+        <v>383</v>
+      </c>
       <c r="Y59" t="s">
-        <v>376</v>
+        <v>212</v>
       </c>
     </row>
     <row r="60">
@@ -5466,7 +6128,7 @@
         <v>44</v>
       </c>
       <c r="F60" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="G60" t="s">
         <v>46</v>
@@ -5475,39 +6137,49 @@
         <v>47</v>
       </c>
       <c r="I60" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="J60" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="K60" t="s">
+        <v>387</v>
+      </c>
+      <c r="L60" t="s">
+        <v>388</v>
+      </c>
+      <c r="M60" t="n">
+        <v>2</v>
+      </c>
+      <c r="N60" t="s">
         <v>381</v>
       </c>
-      <c r="L60" t="s">
-        <v>382</v>
-      </c>
-      <c r="M60" t="n">
-        <v>4</v>
-      </c>
-      <c r="N60" t="s">
-        <v>377</v>
-      </c>
       <c r="O60" t="s">
-        <v>85</v>
-      </c>
-      <c r="P60" t="s"/>
-      <c r="Q60" t="s"/>
+        <v>79</v>
+      </c>
+      <c r="P60" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>4</v>
+      </c>
       <c r="R60" t="s"/>
       <c r="S60" t="s"/>
       <c r="T60" t="s"/>
-      <c r="U60" t="s"/>
+      <c r="U60" t="n">
+        <v>2</v>
+      </c>
       <c r="V60" t="n">
         <v>0</v>
       </c>
-      <c r="W60" t="s"/>
-      <c r="X60" t="s"/>
+      <c r="W60" t="s">
+        <v>389</v>
+      </c>
+      <c r="X60" t="s">
+        <v>390</v>
+      </c>
       <c r="Y60" t="s">
-        <v>382</v>
+        <v>391</v>
       </c>
     </row>
     <row r="61">
@@ -5523,7 +6195,7 @@
         <v>44</v>
       </c>
       <c r="F61" t="s">
-        <v>383</v>
+        <v>392</v>
       </c>
       <c r="G61" t="s">
         <v>46</v>
@@ -5532,49 +6204,51 @@
         <v>47</v>
       </c>
       <c r="I61" t="s">
-        <v>384</v>
+        <v>393</v>
       </c>
       <c r="J61" t="s">
-        <v>385</v>
-      </c>
-      <c r="K61" t="s">
-        <v>386</v>
-      </c>
+        <v>394</v>
+      </c>
+      <c r="K61" t="s"/>
       <c r="L61" t="s">
-        <v>387</v>
+        <v>210</v>
       </c>
       <c r="M61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N61" t="s">
-        <v>388</v>
+        <v>374</v>
       </c>
       <c r="O61" t="s">
-        <v>85</v>
+        <v>53</v>
       </c>
       <c r="P61" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q61" t="n">
         <v>2</v>
       </c>
-      <c r="Q61" t="n">
-        <v>1</v>
-      </c>
       <c r="R61" t="n">
+        <v>5</v>
+      </c>
+      <c r="S61" t="n">
         <v>2</v>
-      </c>
-      <c r="S61" t="n">
-        <v>1</v>
       </c>
       <c r="T61" t="s"/>
       <c r="U61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V61" t="n">
         <v>0</v>
       </c>
-      <c r="W61" t="s"/>
-      <c r="X61" t="s"/>
+      <c r="W61" t="s">
+        <v>389</v>
+      </c>
+      <c r="X61" t="s">
+        <v>390</v>
+      </c>
       <c r="Y61" t="s">
-        <v>387</v>
+        <v>212</v>
       </c>
     </row>
     <row r="62">
@@ -5590,7 +6264,7 @@
         <v>44</v>
       </c>
       <c r="F62" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="G62" t="s">
         <v>46</v>
@@ -5599,21 +6273,25 @@
         <v>47</v>
       </c>
       <c r="I62" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="J62" t="s">
-        <v>391</v>
-      </c>
-      <c r="K62" t="s"/>
-      <c r="L62" t="s"/>
+        <v>397</v>
+      </c>
+      <c r="K62" t="s">
+        <v>398</v>
+      </c>
+      <c r="L62" t="s">
+        <v>399</v>
+      </c>
       <c r="M62" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N62" t="s">
-        <v>392</v>
+        <v>374</v>
       </c>
       <c r="O62" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="P62" t="n">
         <v>4</v>
@@ -5625,18 +6303,24 @@
         <v>4</v>
       </c>
       <c r="S62" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T62" t="s"/>
       <c r="U62" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V62" t="n">
         <v>0</v>
       </c>
-      <c r="W62" t="s"/>
-      <c r="X62" t="s"/>
-      <c r="Y62" t="s"/>
+      <c r="W62" t="s">
+        <v>400</v>
+      </c>
+      <c r="X62" t="s">
+        <v>401</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>402</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -5651,7 +6335,7 @@
         <v>44</v>
       </c>
       <c r="F63" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
       <c r="G63" t="s">
         <v>46</v>
@@ -5660,30 +6344,32 @@
         <v>47</v>
       </c>
       <c r="I63" t="s">
-        <v>394</v>
+        <v>404</v>
       </c>
       <c r="J63" t="s">
-        <v>395</v>
+        <v>405</v>
       </c>
       <c r="K63" t="s"/>
-      <c r="L63" t="s"/>
+      <c r="L63" t="s">
+        <v>210</v>
+      </c>
       <c r="M63" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N63" t="s">
-        <v>396</v>
+        <v>374</v>
       </c>
       <c r="O63" t="s">
         <v>66</v>
       </c>
       <c r="P63" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q63" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R63" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S63" t="n">
         <v>5</v>
@@ -5695,9 +6381,2689 @@
       <c r="V63" t="n">
         <v>0</v>
       </c>
-      <c r="W63" t="s"/>
-      <c r="X63" t="s"/>
-      <c r="Y63" t="s"/>
+      <c r="W63" t="s">
+        <v>400</v>
+      </c>
+      <c r="X63" t="s">
+        <v>401</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>60880</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>406</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>407</v>
+      </c>
+      <c r="J64" t="s">
+        <v>408</v>
+      </c>
+      <c r="K64" t="s">
+        <v>409</v>
+      </c>
+      <c r="L64" t="s">
+        <v>410</v>
+      </c>
+      <c r="M64" t="n">
+        <v>3</v>
+      </c>
+      <c r="N64" t="s">
+        <v>374</v>
+      </c>
+      <c r="O64" t="s">
+        <v>66</v>
+      </c>
+      <c r="P64" t="s"/>
+      <c r="Q64" t="n">
+        <v>4</v>
+      </c>
+      <c r="R64" t="s"/>
+      <c r="S64" t="s"/>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>400</v>
+      </c>
+      <c r="X64" t="s">
+        <v>401</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>60880</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>412</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>413</v>
+      </c>
+      <c r="J65" t="s">
+        <v>414</v>
+      </c>
+      <c r="K65" t="s"/>
+      <c r="L65" t="s">
+        <v>210</v>
+      </c>
+      <c r="M65" t="n">
+        <v>5</v>
+      </c>
+      <c r="N65" t="s">
+        <v>415</v>
+      </c>
+      <c r="O65" t="s">
+        <v>53</v>
+      </c>
+      <c r="P65" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>5</v>
+      </c>
+      <c r="R65" t="n">
+        <v>5</v>
+      </c>
+      <c r="S65" t="n">
+        <v>4</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>400</v>
+      </c>
+      <c r="X65" t="s">
+        <v>401</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>60880</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>416</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>417</v>
+      </c>
+      <c r="J66" t="s">
+        <v>418</v>
+      </c>
+      <c r="K66" t="s"/>
+      <c r="L66" t="s">
+        <v>210</v>
+      </c>
+      <c r="M66" t="n">
+        <v>2</v>
+      </c>
+      <c r="N66" t="s">
+        <v>419</v>
+      </c>
+      <c r="O66" t="s">
+        <v>53</v>
+      </c>
+      <c r="P66" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>3</v>
+      </c>
+      <c r="R66" t="n">
+        <v>3</v>
+      </c>
+      <c r="S66" t="n">
+        <v>2</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>2</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>420</v>
+      </c>
+      <c r="X66" t="s">
+        <v>421</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>60880</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>422</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>423</v>
+      </c>
+      <c r="J67" t="s">
+        <v>424</v>
+      </c>
+      <c r="K67" t="s">
+        <v>425</v>
+      </c>
+      <c r="L67" t="s">
+        <v>426</v>
+      </c>
+      <c r="M67" t="n">
+        <v>4</v>
+      </c>
+      <c r="N67" t="s">
+        <v>427</v>
+      </c>
+      <c r="O67" t="s">
+        <v>66</v>
+      </c>
+      <c r="P67" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q67" t="s"/>
+      <c r="R67" t="n">
+        <v>4</v>
+      </c>
+      <c r="S67" t="s"/>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>4</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>420</v>
+      </c>
+      <c r="X67" t="s">
+        <v>421</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>60880</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>429</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>430</v>
+      </c>
+      <c r="J68" t="s">
+        <v>431</v>
+      </c>
+      <c r="K68" t="s">
+        <v>432</v>
+      </c>
+      <c r="L68" t="s">
+        <v>433</v>
+      </c>
+      <c r="M68" t="n">
+        <v>4</v>
+      </c>
+      <c r="N68" t="s">
+        <v>427</v>
+      </c>
+      <c r="O68" t="s">
+        <v>66</v>
+      </c>
+      <c r="P68" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>4</v>
+      </c>
+      <c r="R68" t="n">
+        <v>4</v>
+      </c>
+      <c r="S68" t="n">
+        <v>5</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>400</v>
+      </c>
+      <c r="X68" t="s">
+        <v>401</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>60880</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>435</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>436</v>
+      </c>
+      <c r="J69" t="s">
+        <v>437</v>
+      </c>
+      <c r="K69" t="s">
+        <v>438</v>
+      </c>
+      <c r="L69" t="s">
+        <v>439</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s">
+        <v>419</v>
+      </c>
+      <c r="O69" t="s">
+        <v>53</v>
+      </c>
+      <c r="P69" t="s"/>
+      <c r="Q69" t="s"/>
+      <c r="R69" t="s"/>
+      <c r="S69" t="s"/>
+      <c r="T69" t="s"/>
+      <c r="U69" t="s"/>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>440</v>
+      </c>
+      <c r="X69" t="s">
+        <v>441</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>60880</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>443</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>444</v>
+      </c>
+      <c r="J70" t="s">
+        <v>445</v>
+      </c>
+      <c r="K70" t="s">
+        <v>446</v>
+      </c>
+      <c r="L70" t="s">
+        <v>447</v>
+      </c>
+      <c r="M70" t="n">
+        <v>5</v>
+      </c>
+      <c r="N70" t="s">
+        <v>427</v>
+      </c>
+      <c r="O70" t="s">
+        <v>53</v>
+      </c>
+      <c r="P70" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>4</v>
+      </c>
+      <c r="R70" t="n">
+        <v>3</v>
+      </c>
+      <c r="S70" t="n">
+        <v>4</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>3</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>440</v>
+      </c>
+      <c r="X70" t="s">
+        <v>441</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>60880</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>449</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>450</v>
+      </c>
+      <c r="J71" t="s">
+        <v>451</v>
+      </c>
+      <c r="K71" t="s">
+        <v>452</v>
+      </c>
+      <c r="L71" t="s">
+        <v>453</v>
+      </c>
+      <c r="M71" t="n">
+        <v>3</v>
+      </c>
+      <c r="N71" t="s">
+        <v>427</v>
+      </c>
+      <c r="O71" t="s">
+        <v>72</v>
+      </c>
+      <c r="P71" t="s"/>
+      <c r="Q71" t="s"/>
+      <c r="R71" t="s"/>
+      <c r="S71" t="s"/>
+      <c r="T71" t="s"/>
+      <c r="U71" t="s"/>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>60880</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>454</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>455</v>
+      </c>
+      <c r="J72" t="s">
+        <v>456</v>
+      </c>
+      <c r="K72" t="s"/>
+      <c r="L72" t="s"/>
+      <c r="M72" t="n">
+        <v>3</v>
+      </c>
+      <c r="N72" t="s">
+        <v>457</v>
+      </c>
+      <c r="O72" t="s">
+        <v>66</v>
+      </c>
+      <c r="P72" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>3</v>
+      </c>
+      <c r="R72" t="n">
+        <v>3</v>
+      </c>
+      <c r="S72" t="n">
+        <v>3</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>3</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>60880</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>458</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>459</v>
+      </c>
+      <c r="J73" t="s">
+        <v>460</v>
+      </c>
+      <c r="K73" t="s">
+        <v>461</v>
+      </c>
+      <c r="L73" t="s">
+        <v>462</v>
+      </c>
+      <c r="M73" t="n">
+        <v>3</v>
+      </c>
+      <c r="N73" t="s">
+        <v>457</v>
+      </c>
+      <c r="O73" t="s">
+        <v>66</v>
+      </c>
+      <c r="P73" t="s"/>
+      <c r="Q73" t="n">
+        <v>3</v>
+      </c>
+      <c r="R73" t="n">
+        <v>3</v>
+      </c>
+      <c r="S73" t="s"/>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>4</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>60880</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>463</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>464</v>
+      </c>
+      <c r="J74" t="s">
+        <v>465</v>
+      </c>
+      <c r="K74" t="s">
+        <v>466</v>
+      </c>
+      <c r="L74" t="s">
+        <v>467</v>
+      </c>
+      <c r="M74" t="n">
+        <v>4</v>
+      </c>
+      <c r="N74" t="s">
+        <v>457</v>
+      </c>
+      <c r="O74" t="s">
+        <v>53</v>
+      </c>
+      <c r="P74" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>5</v>
+      </c>
+      <c r="R74" t="n">
+        <v>5</v>
+      </c>
+      <c r="S74" t="n">
+        <v>5</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>3</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>60880</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>468</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>469</v>
+      </c>
+      <c r="J75" t="s">
+        <v>470</v>
+      </c>
+      <c r="K75" t="s">
+        <v>471</v>
+      </c>
+      <c r="L75" t="s">
+        <v>472</v>
+      </c>
+      <c r="M75" t="n">
+        <v>5</v>
+      </c>
+      <c r="N75" t="s">
+        <v>473</v>
+      </c>
+      <c r="O75" t="s">
+        <v>108</v>
+      </c>
+      <c r="P75" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>4</v>
+      </c>
+      <c r="R75" t="n">
+        <v>5</v>
+      </c>
+      <c r="S75" t="n">
+        <v>5</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>4</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>60880</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>474</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>475</v>
+      </c>
+      <c r="J76" t="s">
+        <v>476</v>
+      </c>
+      <c r="K76" t="s"/>
+      <c r="L76" t="s"/>
+      <c r="M76" t="n">
+        <v>5</v>
+      </c>
+      <c r="N76" t="s">
+        <v>477</v>
+      </c>
+      <c r="O76" t="s">
+        <v>66</v>
+      </c>
+      <c r="P76" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>5</v>
+      </c>
+      <c r="R76" t="n">
+        <v>5</v>
+      </c>
+      <c r="S76" t="n">
+        <v>5</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>60880</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>478</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>479</v>
+      </c>
+      <c r="J77" t="s">
+        <v>480</v>
+      </c>
+      <c r="K77" t="s">
+        <v>481</v>
+      </c>
+      <c r="L77" t="s">
+        <v>482</v>
+      </c>
+      <c r="M77" t="n">
+        <v>4</v>
+      </c>
+      <c r="N77" t="s">
+        <v>477</v>
+      </c>
+      <c r="O77" t="s">
+        <v>53</v>
+      </c>
+      <c r="P77" t="s"/>
+      <c r="Q77" t="s"/>
+      <c r="R77" t="n">
+        <v>5</v>
+      </c>
+      <c r="S77" t="n">
+        <v>5</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>60880</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>483</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>484</v>
+      </c>
+      <c r="J78" t="s">
+        <v>485</v>
+      </c>
+      <c r="K78" t="s"/>
+      <c r="L78" t="s"/>
+      <c r="M78" t="n">
+        <v>3</v>
+      </c>
+      <c r="N78" t="s">
+        <v>477</v>
+      </c>
+      <c r="O78" t="s">
+        <v>53</v>
+      </c>
+      <c r="P78" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>5</v>
+      </c>
+      <c r="R78" t="n">
+        <v>3</v>
+      </c>
+      <c r="S78" t="n">
+        <v>5</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>5</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>60880</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>486</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>487</v>
+      </c>
+      <c r="J79" t="s">
+        <v>488</v>
+      </c>
+      <c r="K79" t="s">
+        <v>489</v>
+      </c>
+      <c r="L79" t="s">
+        <v>490</v>
+      </c>
+      <c r="M79" t="n">
+        <v>4</v>
+      </c>
+      <c r="N79" t="s">
+        <v>477</v>
+      </c>
+      <c r="O79" t="s">
+        <v>66</v>
+      </c>
+      <c r="P79" t="s"/>
+      <c r="Q79" t="s"/>
+      <c r="R79" t="s"/>
+      <c r="S79" t="s"/>
+      <c r="T79" t="s"/>
+      <c r="U79" t="s"/>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>60880</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>492</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>493</v>
+      </c>
+      <c r="J80" t="s">
+        <v>494</v>
+      </c>
+      <c r="K80" t="s">
+        <v>495</v>
+      </c>
+      <c r="L80" t="s">
+        <v>496</v>
+      </c>
+      <c r="M80" t="n">
+        <v>5</v>
+      </c>
+      <c r="N80" t="s">
+        <v>497</v>
+      </c>
+      <c r="O80" t="s">
+        <v>66</v>
+      </c>
+      <c r="P80" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>4</v>
+      </c>
+      <c r="R80" t="n">
+        <v>4</v>
+      </c>
+      <c r="S80" t="n">
+        <v>4</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>5</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>60880</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>498</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>499</v>
+      </c>
+      <c r="J81" t="s">
+        <v>500</v>
+      </c>
+      <c r="K81" t="s">
+        <v>501</v>
+      </c>
+      <c r="L81" t="s">
+        <v>502</v>
+      </c>
+      <c r="M81" t="n">
+        <v>3</v>
+      </c>
+      <c r="N81" t="s">
+        <v>503</v>
+      </c>
+      <c r="O81" t="s">
+        <v>53</v>
+      </c>
+      <c r="P81" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>4</v>
+      </c>
+      <c r="R81" t="n">
+        <v>3</v>
+      </c>
+      <c r="S81" t="n">
+        <v>4</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>4</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>60880</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>504</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>505</v>
+      </c>
+      <c r="J82" t="s">
+        <v>506</v>
+      </c>
+      <c r="K82" t="s">
+        <v>507</v>
+      </c>
+      <c r="L82" t="s">
+        <v>508</v>
+      </c>
+      <c r="M82" t="n">
+        <v>4</v>
+      </c>
+      <c r="N82" t="s">
+        <v>509</v>
+      </c>
+      <c r="O82" t="s">
+        <v>79</v>
+      </c>
+      <c r="P82" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>4</v>
+      </c>
+      <c r="R82" t="n">
+        <v>4</v>
+      </c>
+      <c r="S82" t="n">
+        <v>4</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>4</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>60880</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>510</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>511</v>
+      </c>
+      <c r="J83" t="s">
+        <v>512</v>
+      </c>
+      <c r="K83" t="s"/>
+      <c r="L83" t="s">
+        <v>210</v>
+      </c>
+      <c r="M83" t="n">
+        <v>3</v>
+      </c>
+      <c r="N83" t="s">
+        <v>513</v>
+      </c>
+      <c r="O83" t="s">
+        <v>66</v>
+      </c>
+      <c r="P83" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>4</v>
+      </c>
+      <c r="R83" t="n">
+        <v>4</v>
+      </c>
+      <c r="S83" t="n">
+        <v>4</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>2</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>60880</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>514</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>515</v>
+      </c>
+      <c r="J84" t="s">
+        <v>516</v>
+      </c>
+      <c r="K84" t="s">
+        <v>517</v>
+      </c>
+      <c r="L84" t="s">
+        <v>518</v>
+      </c>
+      <c r="M84" t="n">
+        <v>4</v>
+      </c>
+      <c r="N84" t="s">
+        <v>513</v>
+      </c>
+      <c r="O84" t="s">
+        <v>79</v>
+      </c>
+      <c r="P84" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q84" t="s"/>
+      <c r="R84" t="s"/>
+      <c r="S84" t="n">
+        <v>5</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>4</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>60880</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>519</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>520</v>
+      </c>
+      <c r="J85" t="s">
+        <v>521</v>
+      </c>
+      <c r="K85" t="s"/>
+      <c r="L85" t="s"/>
+      <c r="M85" t="n">
+        <v>2</v>
+      </c>
+      <c r="N85" t="s">
+        <v>522</v>
+      </c>
+      <c r="O85" t="s">
+        <v>79</v>
+      </c>
+      <c r="P85" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>3</v>
+      </c>
+      <c r="R85" t="n">
+        <v>3</v>
+      </c>
+      <c r="S85" t="n">
+        <v>2</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>1</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>60880</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>523</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>524</v>
+      </c>
+      <c r="J86" t="s">
+        <v>525</v>
+      </c>
+      <c r="K86" t="s"/>
+      <c r="L86" t="s"/>
+      <c r="M86" t="n">
+        <v>5</v>
+      </c>
+      <c r="N86" t="s">
+        <v>522</v>
+      </c>
+      <c r="O86" t="s">
+        <v>53</v>
+      </c>
+      <c r="P86" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>5</v>
+      </c>
+      <c r="R86" t="n">
+        <v>5</v>
+      </c>
+      <c r="S86" t="n">
+        <v>5</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>5</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>60880</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>526</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>527</v>
+      </c>
+      <c r="J87" t="s">
+        <v>528</v>
+      </c>
+      <c r="K87" t="s"/>
+      <c r="L87" t="s"/>
+      <c r="M87" t="n">
+        <v>3</v>
+      </c>
+      <c r="N87" t="s">
+        <v>522</v>
+      </c>
+      <c r="O87" t="s">
+        <v>53</v>
+      </c>
+      <c r="P87" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>4</v>
+      </c>
+      <c r="R87" t="n">
+        <v>5</v>
+      </c>
+      <c r="S87" t="n">
+        <v>4</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>2</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s"/>
+      <c r="X87" t="s"/>
+      <c r="Y87" t="s"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>60880</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>529</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>530</v>
+      </c>
+      <c r="J88" t="s">
+        <v>531</v>
+      </c>
+      <c r="K88" t="s">
+        <v>532</v>
+      </c>
+      <c r="L88" t="s">
+        <v>533</v>
+      </c>
+      <c r="M88" t="n">
+        <v>5</v>
+      </c>
+      <c r="N88" t="s">
+        <v>534</v>
+      </c>
+      <c r="O88" t="s">
+        <v>79</v>
+      </c>
+      <c r="P88" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>5</v>
+      </c>
+      <c r="R88" t="n">
+        <v>5</v>
+      </c>
+      <c r="S88" t="n">
+        <v>5</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>5</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s"/>
+      <c r="X88" t="s"/>
+      <c r="Y88" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>60880</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>535</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>536</v>
+      </c>
+      <c r="J89" t="s">
+        <v>537</v>
+      </c>
+      <c r="K89" t="s"/>
+      <c r="L89" t="s"/>
+      <c r="M89" t="n">
+        <v>2</v>
+      </c>
+      <c r="N89" t="s">
+        <v>538</v>
+      </c>
+      <c r="O89" t="s">
+        <v>53</v>
+      </c>
+      <c r="P89" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>1</v>
+      </c>
+      <c r="R89" t="n">
+        <v>1</v>
+      </c>
+      <c r="S89" t="n">
+        <v>1</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>1</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s"/>
+      <c r="X89" t="s"/>
+      <c r="Y89" t="s"/>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>60880</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>539</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>540</v>
+      </c>
+      <c r="J90" t="s">
+        <v>541</v>
+      </c>
+      <c r="K90" t="s"/>
+      <c r="L90" t="s"/>
+      <c r="M90" t="n">
+        <v>5</v>
+      </c>
+      <c r="N90" t="s">
+        <v>538</v>
+      </c>
+      <c r="O90" t="s">
+        <v>79</v>
+      </c>
+      <c r="P90" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>5</v>
+      </c>
+      <c r="R90" t="n">
+        <v>5</v>
+      </c>
+      <c r="S90" t="n">
+        <v>5</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>5</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s"/>
+      <c r="X90" t="s"/>
+      <c r="Y90" t="s"/>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>60880</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>542</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>543</v>
+      </c>
+      <c r="J91" t="s">
+        <v>544</v>
+      </c>
+      <c r="K91" t="s">
+        <v>545</v>
+      </c>
+      <c r="L91" t="s">
+        <v>546</v>
+      </c>
+      <c r="M91" t="n">
+        <v>1</v>
+      </c>
+      <c r="N91" t="s">
+        <v>547</v>
+      </c>
+      <c r="O91" t="s">
+        <v>72</v>
+      </c>
+      <c r="P91" t="s"/>
+      <c r="Q91" t="s"/>
+      <c r="R91" t="s"/>
+      <c r="S91" t="s"/>
+      <c r="T91" t="s"/>
+      <c r="U91" t="s"/>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s"/>
+      <c r="X91" t="s"/>
+      <c r="Y91" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>60880</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>548</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>549</v>
+      </c>
+      <c r="J92" t="s">
+        <v>544</v>
+      </c>
+      <c r="K92" t="s">
+        <v>550</v>
+      </c>
+      <c r="L92" t="s">
+        <v>551</v>
+      </c>
+      <c r="M92" t="n">
+        <v>5</v>
+      </c>
+      <c r="N92" t="s">
+        <v>547</v>
+      </c>
+      <c r="O92" t="s">
+        <v>79</v>
+      </c>
+      <c r="P92" t="s"/>
+      <c r="Q92" t="n">
+        <v>4</v>
+      </c>
+      <c r="R92" t="n">
+        <v>1</v>
+      </c>
+      <c r="S92" t="n">
+        <v>5</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>2</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s"/>
+      <c r="X92" t="s"/>
+      <c r="Y92" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>60880</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>552</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>553</v>
+      </c>
+      <c r="J93" t="s">
+        <v>554</v>
+      </c>
+      <c r="K93" t="s">
+        <v>555</v>
+      </c>
+      <c r="L93" t="s">
+        <v>556</v>
+      </c>
+      <c r="M93" t="n">
+        <v>4</v>
+      </c>
+      <c r="N93" t="s">
+        <v>547</v>
+      </c>
+      <c r="O93" t="s">
+        <v>108</v>
+      </c>
+      <c r="P93" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>4</v>
+      </c>
+      <c r="R93" t="n">
+        <v>3</v>
+      </c>
+      <c r="S93" t="n">
+        <v>4</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>1</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s"/>
+      <c r="X93" t="s"/>
+      <c r="Y93" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>60880</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>558</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>559</v>
+      </c>
+      <c r="J94" t="s">
+        <v>560</v>
+      </c>
+      <c r="K94" t="s"/>
+      <c r="L94" t="s"/>
+      <c r="M94" t="n">
+        <v>4</v>
+      </c>
+      <c r="N94" t="s">
+        <v>561</v>
+      </c>
+      <c r="O94" t="s">
+        <v>108</v>
+      </c>
+      <c r="P94" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>4</v>
+      </c>
+      <c r="R94" t="n">
+        <v>5</v>
+      </c>
+      <c r="S94" t="n">
+        <v>4</v>
+      </c>
+      <c r="T94" t="s"/>
+      <c r="U94" t="n">
+        <v>3</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s"/>
+      <c r="X94" t="s"/>
+      <c r="Y94" t="s"/>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>60880</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>44</v>
+      </c>
+      <c r="F95" t="s">
+        <v>562</v>
+      </c>
+      <c r="G95" t="s">
+        <v>46</v>
+      </c>
+      <c r="H95" t="s">
+        <v>47</v>
+      </c>
+      <c r="I95" t="s">
+        <v>563</v>
+      </c>
+      <c r="J95" t="s">
+        <v>564</v>
+      </c>
+      <c r="K95" t="s"/>
+      <c r="L95" t="s"/>
+      <c r="M95" t="n">
+        <v>4</v>
+      </c>
+      <c r="N95" t="s">
+        <v>565</v>
+      </c>
+      <c r="O95" t="s">
+        <v>79</v>
+      </c>
+      <c r="P95" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>5</v>
+      </c>
+      <c r="R95" t="n">
+        <v>5</v>
+      </c>
+      <c r="S95" t="n">
+        <v>5</v>
+      </c>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>5</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s"/>
+      <c r="X95" t="s"/>
+      <c r="Y95" t="s"/>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>60880</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>44</v>
+      </c>
+      <c r="F96" t="s">
+        <v>566</v>
+      </c>
+      <c r="G96" t="s">
+        <v>46</v>
+      </c>
+      <c r="H96" t="s">
+        <v>47</v>
+      </c>
+      <c r="I96" t="s">
+        <v>567</v>
+      </c>
+      <c r="J96" t="s">
+        <v>568</v>
+      </c>
+      <c r="K96" t="s"/>
+      <c r="L96" t="s"/>
+      <c r="M96" t="n">
+        <v>2</v>
+      </c>
+      <c r="N96" t="s">
+        <v>561</v>
+      </c>
+      <c r="O96" t="s">
+        <v>66</v>
+      </c>
+      <c r="P96" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>4</v>
+      </c>
+      <c r="R96" t="n">
+        <v>1</v>
+      </c>
+      <c r="S96" t="n">
+        <v>2</v>
+      </c>
+      <c r="T96" t="s"/>
+      <c r="U96" t="n">
+        <v>2</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s"/>
+      <c r="X96" t="s"/>
+      <c r="Y96" t="s"/>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>60880</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>44</v>
+      </c>
+      <c r="F97" t="s">
+        <v>569</v>
+      </c>
+      <c r="G97" t="s">
+        <v>46</v>
+      </c>
+      <c r="H97" t="s">
+        <v>47</v>
+      </c>
+      <c r="I97" t="s">
+        <v>570</v>
+      </c>
+      <c r="J97" t="s">
+        <v>571</v>
+      </c>
+      <c r="K97" t="s"/>
+      <c r="L97" t="s"/>
+      <c r="M97" t="n">
+        <v>5</v>
+      </c>
+      <c r="N97" t="s">
+        <v>565</v>
+      </c>
+      <c r="O97" t="s">
+        <v>79</v>
+      </c>
+      <c r="P97" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>5</v>
+      </c>
+      <c r="R97" t="n">
+        <v>3</v>
+      </c>
+      <c r="S97" t="n">
+        <v>5</v>
+      </c>
+      <c r="T97" t="s"/>
+      <c r="U97" t="n">
+        <v>5</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s"/>
+      <c r="X97" t="s"/>
+      <c r="Y97" t="s"/>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>60880</v>
+      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
+      <c r="D98" t="n">
+        <v>97</v>
+      </c>
+      <c r="E98" t="s">
+        <v>44</v>
+      </c>
+      <c r="F98" t="s">
+        <v>572</v>
+      </c>
+      <c r="G98" t="s">
+        <v>46</v>
+      </c>
+      <c r="H98" t="s">
+        <v>47</v>
+      </c>
+      <c r="I98" t="s">
+        <v>573</v>
+      </c>
+      <c r="J98" t="s">
+        <v>574</v>
+      </c>
+      <c r="K98" t="s">
+        <v>575</v>
+      </c>
+      <c r="L98" t="s">
+        <v>576</v>
+      </c>
+      <c r="M98" t="n">
+        <v>1</v>
+      </c>
+      <c r="N98" t="s">
+        <v>577</v>
+      </c>
+      <c r="O98" t="s">
+        <v>79</v>
+      </c>
+      <c r="P98" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>1</v>
+      </c>
+      <c r="R98" t="n">
+        <v>3</v>
+      </c>
+      <c r="S98" t="n">
+        <v>1</v>
+      </c>
+      <c r="T98" t="s"/>
+      <c r="U98" t="n">
+        <v>1</v>
+      </c>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" t="s"/>
+      <c r="X98" t="s"/>
+      <c r="Y98" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>60880</v>
+      </c>
+      <c r="B99" t="s"/>
+      <c r="C99" t="s"/>
+      <c r="D99" t="n">
+        <v>98</v>
+      </c>
+      <c r="E99" t="s">
+        <v>44</v>
+      </c>
+      <c r="F99" t="s">
+        <v>578</v>
+      </c>
+      <c r="G99" t="s">
+        <v>46</v>
+      </c>
+      <c r="H99" t="s">
+        <v>47</v>
+      </c>
+      <c r="I99" t="s">
+        <v>579</v>
+      </c>
+      <c r="J99" t="s">
+        <v>580</v>
+      </c>
+      <c r="K99" t="s">
+        <v>581</v>
+      </c>
+      <c r="L99" t="s">
+        <v>582</v>
+      </c>
+      <c r="M99" t="n">
+        <v>3</v>
+      </c>
+      <c r="N99" t="s">
+        <v>583</v>
+      </c>
+      <c r="O99" t="s">
+        <v>108</v>
+      </c>
+      <c r="P99" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>3</v>
+      </c>
+      <c r="R99" t="n">
+        <v>5</v>
+      </c>
+      <c r="S99" t="n">
+        <v>4</v>
+      </c>
+      <c r="T99" t="s"/>
+      <c r="U99" t="n">
+        <v>3</v>
+      </c>
+      <c r="V99" t="n">
+        <v>0</v>
+      </c>
+      <c r="W99" t="s"/>
+      <c r="X99" t="s"/>
+      <c r="Y99" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>60880</v>
+      </c>
+      <c r="B100" t="s"/>
+      <c r="C100" t="s"/>
+      <c r="D100" t="n">
+        <v>99</v>
+      </c>
+      <c r="E100" t="s">
+        <v>44</v>
+      </c>
+      <c r="F100" t="s">
+        <v>584</v>
+      </c>
+      <c r="G100" t="s">
+        <v>46</v>
+      </c>
+      <c r="H100" t="s">
+        <v>47</v>
+      </c>
+      <c r="I100" t="s">
+        <v>585</v>
+      </c>
+      <c r="J100" t="s">
+        <v>586</v>
+      </c>
+      <c r="K100" t="s">
+        <v>587</v>
+      </c>
+      <c r="L100" t="s">
+        <v>588</v>
+      </c>
+      <c r="M100" t="n">
+        <v>4</v>
+      </c>
+      <c r="N100" t="s">
+        <v>583</v>
+      </c>
+      <c r="O100" t="s">
+        <v>108</v>
+      </c>
+      <c r="P100" t="s"/>
+      <c r="Q100" t="s"/>
+      <c r="R100" t="s"/>
+      <c r="S100" t="s"/>
+      <c r="T100" t="s"/>
+      <c r="U100" t="s"/>
+      <c r="V100" t="n">
+        <v>0</v>
+      </c>
+      <c r="W100" t="s"/>
+      <c r="X100" t="s"/>
+      <c r="Y100" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>60880</v>
+      </c>
+      <c r="B101" t="s"/>
+      <c r="C101" t="s"/>
+      <c r="D101" t="n">
+        <v>100</v>
+      </c>
+      <c r="E101" t="s">
+        <v>44</v>
+      </c>
+      <c r="F101" t="s">
+        <v>589</v>
+      </c>
+      <c r="G101" t="s">
+        <v>46</v>
+      </c>
+      <c r="H101" t="s">
+        <v>47</v>
+      </c>
+      <c r="I101" t="s">
+        <v>590</v>
+      </c>
+      <c r="J101" t="s">
+        <v>591</v>
+      </c>
+      <c r="K101" t="s">
+        <v>592</v>
+      </c>
+      <c r="L101" t="s">
+        <v>593</v>
+      </c>
+      <c r="M101" t="n">
+        <v>1</v>
+      </c>
+      <c r="N101" t="s">
+        <v>594</v>
+      </c>
+      <c r="O101" t="s">
+        <v>108</v>
+      </c>
+      <c r="P101" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>1</v>
+      </c>
+      <c r="R101" t="n">
+        <v>2</v>
+      </c>
+      <c r="S101" t="n">
+        <v>1</v>
+      </c>
+      <c r="T101" t="s"/>
+      <c r="U101" t="n">
+        <v>1</v>
+      </c>
+      <c r="V101" t="n">
+        <v>0</v>
+      </c>
+      <c r="W101" t="s"/>
+      <c r="X101" t="s"/>
+      <c r="Y101" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>60880</v>
+      </c>
+      <c r="B102" t="s"/>
+      <c r="C102" t="s"/>
+      <c r="D102" t="n">
+        <v>101</v>
+      </c>
+      <c r="E102" t="s">
+        <v>44</v>
+      </c>
+      <c r="F102" t="s">
+        <v>595</v>
+      </c>
+      <c r="G102" t="s">
+        <v>46</v>
+      </c>
+      <c r="H102" t="s">
+        <v>47</v>
+      </c>
+      <c r="I102" t="s">
+        <v>596</v>
+      </c>
+      <c r="J102" t="s">
+        <v>597</v>
+      </c>
+      <c r="K102" t="s">
+        <v>598</v>
+      </c>
+      <c r="L102" t="s">
+        <v>599</v>
+      </c>
+      <c r="M102" t="n">
+        <v>2</v>
+      </c>
+      <c r="N102" t="s">
+        <v>600</v>
+      </c>
+      <c r="O102" t="s">
+        <v>108</v>
+      </c>
+      <c r="P102" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>3</v>
+      </c>
+      <c r="R102" t="n">
+        <v>3</v>
+      </c>
+      <c r="S102" t="n">
+        <v>3</v>
+      </c>
+      <c r="T102" t="s"/>
+      <c r="U102" t="n">
+        <v>2</v>
+      </c>
+      <c r="V102" t="n">
+        <v>0</v>
+      </c>
+      <c r="W102" t="s"/>
+      <c r="X102" t="s"/>
+      <c r="Y102" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>60880</v>
+      </c>
+      <c r="B103" t="s"/>
+      <c r="C103" t="s"/>
+      <c r="D103" t="n">
+        <v>102</v>
+      </c>
+      <c r="E103" t="s">
+        <v>44</v>
+      </c>
+      <c r="F103" t="s">
+        <v>601</v>
+      </c>
+      <c r="G103" t="s">
+        <v>46</v>
+      </c>
+      <c r="H103" t="s">
+        <v>47</v>
+      </c>
+      <c r="I103" t="s">
+        <v>602</v>
+      </c>
+      <c r="J103" t="s">
+        <v>603</v>
+      </c>
+      <c r="K103" t="s">
+        <v>604</v>
+      </c>
+      <c r="L103" t="s">
+        <v>605</v>
+      </c>
+      <c r="M103" t="n">
+        <v>5</v>
+      </c>
+      <c r="N103" t="s"/>
+      <c r="O103" t="s"/>
+      <c r="P103" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>5</v>
+      </c>
+      <c r="R103" t="n">
+        <v>3</v>
+      </c>
+      <c r="S103" t="n">
+        <v>5</v>
+      </c>
+      <c r="T103" t="s"/>
+      <c r="U103" t="n">
+        <v>5</v>
+      </c>
+      <c r="V103" t="n">
+        <v>0</v>
+      </c>
+      <c r="W103" t="s"/>
+      <c r="X103" t="s"/>
+      <c r="Y103" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>60880</v>
+      </c>
+      <c r="B104" t="s"/>
+      <c r="C104" t="s"/>
+      <c r="D104" t="n">
+        <v>103</v>
+      </c>
+      <c r="E104" t="s">
+        <v>44</v>
+      </c>
+      <c r="F104" t="s">
+        <v>607</v>
+      </c>
+      <c r="G104" t="s">
+        <v>46</v>
+      </c>
+      <c r="H104" t="s">
+        <v>47</v>
+      </c>
+      <c r="I104" t="s">
+        <v>608</v>
+      </c>
+      <c r="J104" t="s">
+        <v>609</v>
+      </c>
+      <c r="K104" t="s"/>
+      <c r="L104" t="s"/>
+      <c r="M104" t="n">
+        <v>4</v>
+      </c>
+      <c r="N104" t="s">
+        <v>610</v>
+      </c>
+      <c r="O104" t="s">
+        <v>79</v>
+      </c>
+      <c r="P104" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>4</v>
+      </c>
+      <c r="R104" t="n">
+        <v>4</v>
+      </c>
+      <c r="S104" t="n">
+        <v>4</v>
+      </c>
+      <c r="T104" t="s"/>
+      <c r="U104" t="n">
+        <v>3</v>
+      </c>
+      <c r="V104" t="n">
+        <v>0</v>
+      </c>
+      <c r="W104" t="s"/>
+      <c r="X104" t="s"/>
+      <c r="Y104" t="s"/>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>60880</v>
+      </c>
+      <c r="B105" t="s"/>
+      <c r="C105" t="s"/>
+      <c r="D105" t="n">
+        <v>104</v>
+      </c>
+      <c r="E105" t="s">
+        <v>44</v>
+      </c>
+      <c r="F105" t="s">
+        <v>611</v>
+      </c>
+      <c r="G105" t="s">
+        <v>46</v>
+      </c>
+      <c r="H105" t="s">
+        <v>47</v>
+      </c>
+      <c r="I105" t="s">
+        <v>612</v>
+      </c>
+      <c r="J105" t="s">
+        <v>613</v>
+      </c>
+      <c r="K105" t="s"/>
+      <c r="L105" t="s"/>
+      <c r="M105" t="n">
+        <v>5</v>
+      </c>
+      <c r="N105" t="s">
+        <v>614</v>
+      </c>
+      <c r="O105" t="s">
+        <v>79</v>
+      </c>
+      <c r="P105" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>5</v>
+      </c>
+      <c r="R105" t="n">
+        <v>5</v>
+      </c>
+      <c r="S105" t="n">
+        <v>5</v>
+      </c>
+      <c r="T105" t="s"/>
+      <c r="U105" t="n">
+        <v>5</v>
+      </c>
+      <c r="V105" t="n">
+        <v>0</v>
+      </c>
+      <c r="W105" t="s"/>
+      <c r="X105" t="s"/>
+      <c r="Y105" t="s"/>
     </row>
   </sheetData>
 </worksheet>
